--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1747104.64090775</v>
+        <v>-1749137.685457467</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2297863.640167027</v>
+        <v>2297863.640167026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.6802163062329</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,64 +668,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>206.909162189371</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.097100052852174</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>20.85732126240478</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.097100052852173</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>20.40588014331381</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>93.11487379203076</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>142.3870695882587</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.632598604764077</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D5" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>149.0142977744307</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.15254088235802</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.37349040395453</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>49.63850778066126</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>160.1989433021659</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>132.3879643982078</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>73.52907136089628</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>213.8524658611804</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>378.2332066783358</v>
       </c>
       <c r="C11" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858628</v>
       </c>
       <c r="D11" t="n">
-        <v>350.1824066355381</v>
+        <v>350.1824066355382</v>
       </c>
       <c r="E11" t="n">
         <v>377.429735087117</v>
       </c>
       <c r="F11" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565667</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091227</v>
       </c>
       <c r="H11" t="n">
         <v>301.3353198655366</v>
       </c>
       <c r="I11" t="n">
-        <v>79.34406608901108</v>
+        <v>79.34406608901111</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>129.670638599329</v>
       </c>
       <c r="T11" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683885</v>
       </c>
       <c r="U11" t="n">
         <v>246.5822465050223</v>
@@ -1430,10 +1430,10 @@
         <v>323.2516234849901</v>
       </c>
       <c r="W11" t="n">
-        <v>344.7403337322682</v>
+        <v>344.7403337322683</v>
       </c>
       <c r="X11" t="n">
-        <v>365.2304656933242</v>
+        <v>365.2304656933243</v>
       </c>
       <c r="Y11" t="n">
         <v>381.7373036709088</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>175.3313451967925</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>162.746186113483</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>144.1148380330676</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.9333276614244</v>
       </c>
       <c r="F13" t="n">
-        <v>140.9204130377864</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.194160177847522</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6268708087557</v>
+        <v>39.81712440072802</v>
       </c>
       <c r="I13" t="n">
-        <v>106.6413558026584</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.5443396587283</v>
       </c>
       <c r="S13" t="n">
-        <v>193.8390089722218</v>
+        <v>193.8390089722219</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>281.7380283178888</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>247.6370083386832</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>282.0223633514462</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>221.2090204038924</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.08401836695</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378.2332066783358</v>
+        <v>378.2332066783359</v>
       </c>
       <c r="C14" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858629</v>
       </c>
       <c r="D14" t="n">
-        <v>350.1824066355381</v>
+        <v>350.1824066355383</v>
       </c>
       <c r="E14" t="n">
-        <v>377.429735087117</v>
+        <v>377.4297350871171</v>
       </c>
       <c r="F14" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565667</v>
       </c>
       <c r="G14" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091227</v>
       </c>
       <c r="H14" t="n">
-        <v>301.3353198655366</v>
+        <v>301.3353198655367</v>
       </c>
       <c r="I14" t="n">
-        <v>79.34406608901108</v>
+        <v>79.34406608901119</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.670638599329</v>
+        <v>129.6706385993291</v>
       </c>
       <c r="T14" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683885</v>
       </c>
       <c r="U14" t="n">
-        <v>246.5822465050223</v>
+        <v>246.5822465050224</v>
       </c>
       <c r="V14" t="n">
-        <v>323.2516234849901</v>
+        <v>323.2516234849902</v>
       </c>
       <c r="W14" t="n">
-        <v>344.7403337322682</v>
+        <v>344.7403337322683</v>
       </c>
       <c r="X14" t="n">
-        <v>365.2304656933242</v>
+        <v>365.2304656933243</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.7373036709088</v>
+        <v>381.7373036709089</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.3313451967925</v>
+        <v>175.3313451967926</v>
       </c>
       <c r="C16" t="n">
-        <v>162.746186113483</v>
+        <v>162.7461861134831</v>
       </c>
       <c r="D16" t="n">
-        <v>144.1148380330675</v>
+        <v>144.1148380330677</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.69559331860643</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.6268708087558</v>
+        <v>67.04209360420627</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>106.6413558026585</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.5443396587283</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.8390089722218</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>247.6370083386832</v>
+        <v>247.6370083386833</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>282.0223633514463</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.08401836695</v>
+        <v>214.0840183669501</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1844,25 @@
         <v>378.2332066783358</v>
       </c>
       <c r="C17" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858628</v>
       </c>
       <c r="D17" t="n">
-        <v>350.1824066355381</v>
+        <v>350.1824066355382</v>
       </c>
       <c r="E17" t="n">
         <v>377.429735087117</v>
       </c>
       <c r="F17" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565667</v>
       </c>
       <c r="G17" t="n">
-        <v>407.517459809123</v>
+        <v>407.5174598091227</v>
       </c>
       <c r="H17" t="n">
         <v>301.3353198655366</v>
       </c>
       <c r="I17" t="n">
-        <v>79.34406608901108</v>
+        <v>79.34406608901116</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>129.670638599329</v>
+        <v>129.6706385993291</v>
       </c>
       <c r="T17" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683885</v>
       </c>
       <c r="U17" t="n">
-        <v>246.5822465050223</v>
+        <v>246.5822465050224</v>
       </c>
       <c r="V17" t="n">
         <v>323.2516234849901</v>
       </c>
       <c r="W17" t="n">
-        <v>344.7403337322682</v>
+        <v>344.7403337322683</v>
       </c>
       <c r="X17" t="n">
-        <v>365.2304656933242</v>
+        <v>365.2304656933243</v>
       </c>
       <c r="Y17" t="n">
         <v>381.7373036709088</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>162.7461861134831</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>106.556762267062</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>162.016966726597</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.6268708087558</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>106.6413558026585</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.8390089722218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1496135889819</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>281.7380283178888</v>
       </c>
       <c r="V19" t="n">
-        <v>247.6370083386832</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0223633514462</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>177.2331862380665</v>
+        <v>221.2090204038924</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.0840183669501</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.2332066783357</v>
+        <v>378.2332066783358</v>
       </c>
       <c r="C20" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858628</v>
       </c>
       <c r="D20" t="n">
-        <v>350.1824066355381</v>
+        <v>350.1824066355382</v>
       </c>
       <c r="E20" t="n">
-        <v>377.4297350871169</v>
+        <v>377.429735087117</v>
       </c>
       <c r="F20" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565667</v>
       </c>
       <c r="G20" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091227</v>
       </c>
       <c r="H20" t="n">
-        <v>301.3353198655365</v>
+        <v>301.3353198655366</v>
       </c>
       <c r="I20" t="n">
-        <v>79.34406608901104</v>
+        <v>79.34406608901116</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.6706385993289</v>
+        <v>129.6706385993291</v>
       </c>
       <c r="T20" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683885</v>
       </c>
       <c r="U20" t="n">
-        <v>246.5822465050222</v>
+        <v>246.5822465050224</v>
       </c>
       <c r="V20" t="n">
         <v>323.25162348499</v>
       </c>
       <c r="W20" t="n">
-        <v>344.7403337322681</v>
+        <v>344.7403337322683</v>
       </c>
       <c r="X20" t="n">
-        <v>365.2304656933242</v>
+        <v>365.2304656933243</v>
       </c>
       <c r="Y20" t="n">
-        <v>381.7373036709087</v>
+        <v>381.7373036709088</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>175.3313451967926</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>162.7461861134831</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.1148380330676</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>140.9204130377865</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.6268708087558</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>90.04217718783141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>106.5443396587283</v>
       </c>
       <c r="S22" t="n">
-        <v>193.8390089722218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>173.1737794231566</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>281.7380283178887</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>247.6370083386831</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>282.0223633514461</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>221.2090204038923</v>
+        <v>221.2090204038924</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>214.0840183669501</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>378.2332066783357</v>
+        <v>378.2332066783358</v>
       </c>
       <c r="C23" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858628</v>
       </c>
       <c r="D23" t="n">
-        <v>350.1824066355381</v>
+        <v>350.1824066355382</v>
       </c>
       <c r="E23" t="n">
-        <v>377.4297350871169</v>
+        <v>377.429735087117</v>
       </c>
       <c r="F23" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565667</v>
       </c>
       <c r="G23" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091227</v>
       </c>
       <c r="H23" t="n">
-        <v>301.3353198655365</v>
+        <v>301.3353198655366</v>
       </c>
       <c r="I23" t="n">
-        <v>79.34406608901104</v>
+        <v>79.34406608901116</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>129.6706385993289</v>
+        <v>129.6706385993291</v>
       </c>
       <c r="T23" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683885</v>
       </c>
       <c r="U23" t="n">
-        <v>246.5822465050222</v>
+        <v>246.5822465050224</v>
       </c>
       <c r="V23" t="n">
-        <v>323.25162348499</v>
+        <v>323.2516234849901</v>
       </c>
       <c r="W23" t="n">
-        <v>344.7403337322681</v>
+        <v>344.7403337322683</v>
       </c>
       <c r="X23" t="n">
-        <v>365.2304656933242</v>
+        <v>365.2304656933243</v>
       </c>
       <c r="Y23" t="n">
-        <v>381.7373036709087</v>
+        <v>381.7373036709086</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>175.3313451967926</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>162.7461861134831</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.9333276614243</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>162.0169667265968</v>
+        <v>162.016966726597</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6268708087557</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>106.5443396587282</v>
+        <v>106.5443396587283</v>
       </c>
       <c r="S25" t="n">
-        <v>193.8390089722218</v>
+        <v>140.5377187518623</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.149613588982</v>
       </c>
       <c r="U25" t="n">
-        <v>281.7380283178887</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0223633514461</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>221.2090204038924</v>
       </c>
       <c r="Y25" t="n">
-        <v>86.89830331022729</v>
+        <v>214.0840183669501</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2558,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>334.5284246757166</v>
+        <v>334.5284246757165</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>361.7757531272953</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>386.7214287967449</v>
       </c>
       <c r="G26" t="n">
-        <v>412.0180947942674</v>
+        <v>404.9724208519948</v>
       </c>
       <c r="H26" t="n">
-        <v>298.790280908409</v>
+        <v>305.8359548506814</v>
       </c>
       <c r="I26" t="n">
         <v>83.84470107415589</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.0166566395074</v>
+        <v>134.1712735844738</v>
       </c>
       <c r="T26" t="n">
-        <v>188.5627091085668</v>
+        <v>208.7173260535332</v>
       </c>
       <c r="U26" t="n">
         <v>251.0828814901671</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>20.76289778032974</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>128.9728888489341</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.8903576989066</v>
       </c>
       <c r="S28" t="n">
         <v>178.1850270124002</v>
@@ -2767,19 +2767,19 @@
         <v>201.4956316291603</v>
       </c>
       <c r="U28" t="n">
-        <v>266.0840463580672</v>
+        <v>266.0840463580671</v>
       </c>
       <c r="V28" t="n">
-        <v>231.9830263788616</v>
+        <v>231.9830263788615</v>
       </c>
       <c r="W28" t="n">
-        <v>266.3683813916246</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>205.5550384440707</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.6877993436732</v>
+        <v>198.4300364071283</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>374.8846961299892</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>412.0180947942674</v>
       </c>
       <c r="H29" t="n">
-        <v>305.8359548506814</v>
+        <v>298.7902809084097</v>
       </c>
       <c r="I29" t="n">
         <v>83.84470107415589</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>134.1712735844738</v>
+        <v>114.0166566395073</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7173260535332</v>
+        <v>188.5627091085667</v>
       </c>
       <c r="U29" t="n">
-        <v>230.9282645452007</v>
+        <v>230.9282645452006</v>
       </c>
       <c r="V29" t="n">
-        <v>307.5976415251685</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>366.0833217110872</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>147.0922041536613</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4608560732458</v>
       </c>
       <c r="E31" t="n">
-        <v>126.2793457016028</v>
+        <v>126.2793457016026</v>
       </c>
       <c r="F31" t="n">
-        <v>125.2664310779648</v>
+        <v>125.2664310779647</v>
       </c>
       <c r="G31" t="n">
-        <v>146.3629847667753</v>
+        <v>146.3629847667752</v>
       </c>
       <c r="H31" t="n">
-        <v>128.9728888489341</v>
+        <v>24.03595243171303</v>
       </c>
       <c r="I31" t="n">
-        <v>90.98737384283683</v>
+        <v>90.98737384283672</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.89035769890654</v>
       </c>
       <c r="S31" t="n">
-        <v>178.1850270124002</v>
+        <v>178.1850270124001</v>
       </c>
       <c r="T31" t="n">
-        <v>201.4956316291603</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>266.0840463580672</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>53.1701828760451</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>266.3683813916244</v>
       </c>
       <c r="X31" t="n">
-        <v>205.5550384440707</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>198.4300364071283</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.2243168863087</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3086,7 +3086,7 @@
         <v>251.0828814901671</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>260.242733692963</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>287.1735168435118</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>412.0180947942674</v>
       </c>
       <c r="H35" t="n">
-        <v>238.3264300735103</v>
+        <v>305.8359548506814</v>
       </c>
       <c r="I35" t="n">
         <v>83.84470107415589</v>
@@ -3424,25 +3424,25 @@
         <v>110.6130683112824</v>
       </c>
       <c r="C37" t="n">
-        <v>98.0279092279729</v>
+        <v>98.02790922797293</v>
       </c>
       <c r="D37" t="n">
-        <v>79.39656114755742</v>
+        <v>79.39656114755745</v>
       </c>
       <c r="E37" t="n">
-        <v>77.21505077591424</v>
+        <v>77.21505077591426</v>
       </c>
       <c r="F37" t="n">
-        <v>76.20213615227631</v>
+        <v>76.20213615227634</v>
       </c>
       <c r="G37" t="n">
-        <v>97.29868984108676</v>
+        <v>97.29868984108678</v>
       </c>
       <c r="H37" t="n">
-        <v>79.90859392324562</v>
+        <v>79.90859392324566</v>
       </c>
       <c r="I37" t="n">
-        <v>41.92307891714832</v>
+        <v>41.92307891714834</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.82606277321814</v>
+        <v>41.82606277321817</v>
       </c>
       <c r="S37" t="n">
-        <v>129.1207320867117</v>
+        <v>129.1207320867118</v>
       </c>
       <c r="T37" t="n">
-        <v>152.4313367034718</v>
+        <v>152.4313367034719</v>
       </c>
       <c r="U37" t="n">
         <v>217.0197514323787</v>
@@ -3487,10 +3487,10 @@
         <v>217.3040864659361</v>
       </c>
       <c r="X37" t="n">
-        <v>156.4907435183822</v>
+        <v>156.4907435183823</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.3657414814398</v>
+        <v>149.3657414814399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.2243168863087</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>134.1712735844738</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7173260535332</v>
+        <v>141.2078012763618</v>
       </c>
       <c r="U38" t="n">
         <v>251.0828814901671</v>
@@ -3661,25 +3661,25 @@
         <v>110.6130683112824</v>
       </c>
       <c r="C40" t="n">
-        <v>98.02790922797293</v>
+        <v>98.02790922797291</v>
       </c>
       <c r="D40" t="n">
-        <v>79.39656114755745</v>
+        <v>79.39656114755743</v>
       </c>
       <c r="E40" t="n">
-        <v>77.21505077591426</v>
+        <v>77.21505077591425</v>
       </c>
       <c r="F40" t="n">
-        <v>76.20213615227634</v>
+        <v>76.20213615227632</v>
       </c>
       <c r="G40" t="n">
-        <v>97.29868984108678</v>
+        <v>97.29868984108677</v>
       </c>
       <c r="H40" t="n">
-        <v>79.90859392324565</v>
+        <v>79.90859392324563</v>
       </c>
       <c r="I40" t="n">
-        <v>41.92307891714835</v>
+        <v>41.92307891714833</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.82606277321817</v>
+        <v>41.82606277321815</v>
       </c>
       <c r="S40" t="n">
-        <v>129.1207320867118</v>
+        <v>129.1207320867117</v>
       </c>
       <c r="T40" t="n">
-        <v>152.4313367034719</v>
+        <v>152.4313367034718</v>
       </c>
       <c r="U40" t="n">
         <v>217.0197514323787</v>
@@ -3724,7 +3724,7 @@
         <v>217.3040864659361</v>
       </c>
       <c r="X40" t="n">
-        <v>156.4907435183823</v>
+        <v>156.4907435183822</v>
       </c>
       <c r="Y40" t="n">
         <v>149.3657414814399</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>297.7633669938355</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,10 +3755,10 @@
         <v>412.0180947942674</v>
       </c>
       <c r="H41" t="n">
-        <v>305.8359548506813</v>
+        <v>305.8359548506814</v>
       </c>
       <c r="I41" t="n">
-        <v>83.84470107415588</v>
+        <v>83.84470107415589</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>208.7173260535332</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0828814901671</v>
+        <v>183.5733567129952</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>95.26228538037898</v>
       </c>
       <c r="I42" t="n">
-        <v>28.88832357779011</v>
+        <v>28.88832357779012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>110.6130683112824</v>
       </c>
       <c r="C43" t="n">
-        <v>98.02790922797293</v>
+        <v>98.02790922797291</v>
       </c>
       <c r="D43" t="n">
-        <v>79.39656114755745</v>
+        <v>79.39656114755743</v>
       </c>
       <c r="E43" t="n">
-        <v>77.21505077591426</v>
+        <v>77.21505077591425</v>
       </c>
       <c r="F43" t="n">
-        <v>76.20213615227634</v>
+        <v>76.20213615227632</v>
       </c>
       <c r="G43" t="n">
-        <v>97.29868984108678</v>
+        <v>97.29868984108677</v>
       </c>
       <c r="H43" t="n">
-        <v>79.90859392324566</v>
+        <v>79.90859392324563</v>
       </c>
       <c r="I43" t="n">
         <v>41.92307891714833</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.82606277321817</v>
+        <v>41.82606277321815</v>
       </c>
       <c r="S43" t="n">
-        <v>129.1207320867118</v>
+        <v>129.1207320867117</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4313367034719</v>
+        <v>152.4313367034718</v>
       </c>
       <c r="U43" t="n">
         <v>217.0197514323787</v>
@@ -3961,7 +3961,7 @@
         <v>217.3040864659361</v>
       </c>
       <c r="X43" t="n">
-        <v>156.4907435183823</v>
+        <v>156.4907435183822</v>
       </c>
       <c r="Y43" t="n">
         <v>149.3657414814399</v>
@@ -3980,10 +3980,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>287.1735168435109</v>
       </c>
       <c r="E44" t="n">
-        <v>314.4208452950908</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,25 +4135,25 @@
         <v>110.6130683112824</v>
       </c>
       <c r="C46" t="n">
-        <v>98.02790922797291</v>
+        <v>98.02790922797296</v>
       </c>
       <c r="D46" t="n">
-        <v>79.39656114755743</v>
+        <v>79.39656114755748</v>
       </c>
       <c r="E46" t="n">
-        <v>77.21505077591425</v>
+        <v>77.21505077591429</v>
       </c>
       <c r="F46" t="n">
-        <v>76.20213615227632</v>
+        <v>76.20213615227637</v>
       </c>
       <c r="G46" t="n">
-        <v>97.29868984108677</v>
+        <v>97.29868984108681</v>
       </c>
       <c r="H46" t="n">
-        <v>79.90859392324563</v>
+        <v>79.90859392324568</v>
       </c>
       <c r="I46" t="n">
-        <v>41.92307891714833</v>
+        <v>41.92307891714837</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.82606277321815</v>
+        <v>41.8260627732182</v>
       </c>
       <c r="S46" t="n">
-        <v>129.1207320867117</v>
+        <v>129.1207320867118</v>
       </c>
       <c r="T46" t="n">
-        <v>152.4313367034718</v>
+        <v>152.4313367034719</v>
       </c>
       <c r="U46" t="n">
         <v>217.0197514323787</v>
@@ -4198,7 +4198,7 @@
         <v>217.3040864659361</v>
       </c>
       <c r="X46" t="n">
-        <v>156.4907435183822</v>
+        <v>156.4907435183823</v>
       </c>
       <c r="Y46" t="n">
         <v>149.3657414814399</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.4082527667006</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="C2" t="n">
-        <v>313.4082527667006</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="D2" t="n">
-        <v>313.4082527667006</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="E2" t="n">
-        <v>313.4082527667006</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="F2" t="n">
-        <v>306.4627520174971</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="G2" t="n">
-        <v>291.0988920136271</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I2" t="n">
         <v>25.19784761800421</v>
@@ -4337,10 +4337,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="V2" t="n">
-        <v>787.0670914110435</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="W2" t="n">
-        <v>787.0670914110435</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="X2" t="n">
-        <v>521.1660470154206</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.1660470154206</v>
+        <v>765.9990901358872</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.6589501151368</v>
+        <v>465.5135576880982</v>
       </c>
       <c r="C3" t="n">
-        <v>188.2059208340098</v>
+        <v>465.5135576880982</v>
       </c>
       <c r="D3" t="n">
-        <v>188.2059208340098</v>
+        <v>316.5791480268469</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>316.5791480268469</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4410,16 +4410,16 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K3" t="n">
-        <v>30.73231659501204</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>271.3358444898745</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M3" t="n">
-        <v>531.9454581020244</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="N3" t="n">
-        <v>792.5550717141743</v>
+        <v>920.0438056590746</v>
       </c>
       <c r="O3" t="n">
         <v>1052.968135806666</v>
@@ -4431,28 +4431,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U3" t="n">
-        <v>824.7478070488712</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V3" t="n">
-        <v>824.7478070488712</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="W3" t="n">
-        <v>570.5104503206696</v>
+        <v>465.5135576880982</v>
       </c>
       <c r="X3" t="n">
-        <v>362.6589501151368</v>
+        <v>465.5135576880982</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.6589501151368</v>
+        <v>465.5135576880982</v>
       </c>
     </row>
     <row r="4">
@@ -4474,19 +4474,19 @@
         <v>182.5089274706534</v>
       </c>
       <c r="F4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="H4" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="I4" t="n">
-        <v>38.68360465423048</v>
+        <v>26.74885625629906</v>
       </c>
       <c r="J4" t="n">
-        <v>38.68360465423048</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.5034879835598</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="C5" t="n">
-        <v>458.5034879835598</v>
+        <v>809.3643835117316</v>
       </c>
       <c r="D5" t="n">
-        <v>179.5575145468371</v>
+        <v>530.4184100750089</v>
       </c>
       <c r="E5" t="n">
-        <v>179.5575145468371</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F5" t="n">
-        <v>172.6120137976336</v>
+        <v>244.5269358890827</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I5" t="n">
         <v>22.09252109618844</v>
@@ -4589,28 +4589,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T5" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U5" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W5" t="n">
-        <v>737.4494614202825</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="X5" t="n">
-        <v>737.4494614202825</v>
+        <v>1088.310356948454</v>
       </c>
       <c r="Y5" t="n">
-        <v>458.5034879835598</v>
+        <v>1088.310356948454</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.6270790693035</v>
+        <v>592.3972910265347</v>
       </c>
       <c r="C6" t="n">
-        <v>168.6270790693035</v>
+        <v>417.9442617454077</v>
       </c>
       <c r="D6" t="n">
-        <v>168.6270790693035</v>
+        <v>269.0098520841565</v>
       </c>
       <c r="E6" t="n">
-        <v>168.6270790693035</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
@@ -4647,16 +4647,16 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
-        <v>159.4923828364511</v>
+        <v>35.88252027119671</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6478494291521</v>
+        <v>282.0379868638977</v>
       </c>
       <c r="M6" t="n">
-        <v>679.042797994484</v>
+        <v>555.4329354292296</v>
       </c>
       <c r="N6" t="n">
-        <v>679.042797994484</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="O6" t="n">
         <v>828.8278839945615</v>
@@ -4674,22 +4674,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>902.7461548375312</v>
+        <v>1054.486147960269</v>
       </c>
       <c r="U6" t="n">
-        <v>674.5275424716789</v>
+        <v>1054.486147960269</v>
       </c>
       <c r="V6" t="n">
-        <v>674.5275424716789</v>
+        <v>1054.486147960269</v>
       </c>
       <c r="W6" t="n">
-        <v>420.2901857434773</v>
+        <v>800.2487912320676</v>
       </c>
       <c r="X6" t="n">
-        <v>212.4386855379444</v>
+        <v>592.3972910265347</v>
       </c>
       <c r="Y6" t="n">
-        <v>212.4386855379444</v>
+        <v>592.3972910265347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="K7" t="n">
         <v>22.09252109618844</v>
@@ -4759,16 +4759,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>37.1756025565036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1170.083887280542</v>
       </c>
       <c r="E8" t="n">
         <v>1036.358670716696</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2567.848612295285</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2567.848612295285</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2567.848612295285</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>2177.709280319473</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.886935907449</v>
+        <v>2397.88693590745</v>
       </c>
       <c r="C11" t="n">
         <v>2033.470514911628</v>
       </c>
       <c r="D11" t="n">
-        <v>1679.750912249468</v>
+        <v>1679.750912249469</v>
       </c>
       <c r="E11" t="n">
         <v>1298.508755595815</v>
       </c>
       <c r="F11" t="n">
-        <v>892.0689467507977</v>
+        <v>892.0689467507982</v>
       </c>
       <c r="G11" t="n">
-        <v>480.4351489638045</v>
+        <v>480.4351489638046</v>
       </c>
       <c r="H11" t="n">
         <v>176.0560379885151</v>
       </c>
       <c r="I11" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J11" t="n">
         <v>360.0728659043552</v>
@@ -5057,34 +5057,34 @@
         <v>3841.091560304322</v>
       </c>
       <c r="P11" t="n">
-        <v>4398.3639873699</v>
+        <v>4398.363987369901</v>
       </c>
       <c r="Q11" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154367</v>
       </c>
       <c r="R11" t="n">
-        <v>4795.525834324183</v>
+        <v>4795.525834324184</v>
       </c>
       <c r="S11" t="n">
-        <v>4664.545391294559</v>
+        <v>4664.54539129456</v>
       </c>
       <c r="T11" t="n">
-        <v>4458.265905366893</v>
+        <v>4458.265905366894</v>
       </c>
       <c r="U11" t="n">
-        <v>4209.192929099193</v>
+        <v>4209.192929099194</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.676137700213</v>
+        <v>3882.676137700214</v>
       </c>
       <c r="W11" t="n">
-        <v>3534.45357837469</v>
+        <v>3534.453578374691</v>
       </c>
       <c r="X11" t="n">
-        <v>3165.533916058201</v>
+        <v>3165.533916058202</v>
       </c>
       <c r="Y11" t="n">
-        <v>2779.94068002698</v>
+        <v>2779.940680026981</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4302588394911</v>
+        <v>987.4302588394913</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9772295583641</v>
+        <v>812.9772295583643</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0428198971128</v>
+        <v>664.0428198971131</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8053648916574</v>
+        <v>504.8053648916575</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2708069185424</v>
+        <v>358.2708069185425</v>
       </c>
       <c r="G12" t="n">
         <v>221.3151721997858</v>
@@ -5115,28 +5115,28 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I12" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J12" t="n">
         <v>134.7202975173784</v>
       </c>
       <c r="K12" t="n">
-        <v>541.0278038556972</v>
+        <v>541.0278038556974</v>
       </c>
       <c r="L12" t="n">
-        <v>781.6308420245639</v>
+        <v>781.630842024564</v>
       </c>
       <c r="M12" t="n">
-        <v>1542.808120340245</v>
+        <v>1081.760107227745</v>
       </c>
       <c r="N12" t="n">
-        <v>1865.289559046601</v>
+        <v>1404.241545934101</v>
       </c>
       <c r="O12" t="n">
-        <v>2138.077278401336</v>
+        <v>2066.952961372799</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.680406330389</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q12" t="n">
         <v>2624.228975484484</v>
@@ -5154,7 +5154,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.494751558247</v>
+        <v>1825.494751558248</v>
       </c>
       <c r="W12" t="n">
         <v>1571.257394830046</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.2769811582496</v>
+        <v>589.4574623518401</v>
       </c>
       <c r="C13" t="n">
-        <v>494.2769811582496</v>
+        <v>425.067375368524</v>
       </c>
       <c r="D13" t="n">
-        <v>494.2769811582496</v>
+        <v>279.4968319007789</v>
       </c>
       <c r="E13" t="n">
-        <v>494.2769811582496</v>
+        <v>136.1298342629766</v>
       </c>
       <c r="F13" t="n">
-        <v>351.9331296049298</v>
+        <v>136.1298342629766</v>
       </c>
       <c r="G13" t="n">
-        <v>349.7168061929626</v>
+        <v>136.1298342629766</v>
       </c>
       <c r="H13" t="n">
-        <v>203.6290579012902</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="I13" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J13" t="n">
-        <v>111.0666786329385</v>
+        <v>111.0666786329384</v>
       </c>
       <c r="K13" t="n">
-        <v>262.9434072860047</v>
+        <v>262.9434072860046</v>
       </c>
       <c r="L13" t="n">
-        <v>511.573723238709</v>
+        <v>511.5737232387089</v>
       </c>
       <c r="M13" t="n">
-        <v>783.8664469273058</v>
+        <v>783.8664469273056</v>
       </c>
       <c r="N13" t="n">
         <v>1055.225219562731</v>
@@ -5221,28 +5221,28 @@
         <v>1509.667293259502</v>
       </c>
       <c r="R13" t="n">
-        <v>1509.667293259502</v>
+        <v>1402.046748149676</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.870314499682</v>
+        <v>1206.249769389855</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.870314499682</v>
+        <v>1206.249769389855</v>
       </c>
       <c r="U13" t="n">
-        <v>1029.286447511916</v>
+        <v>1206.249769389855</v>
       </c>
       <c r="V13" t="n">
-        <v>779.1480552506194</v>
+        <v>1206.249769389855</v>
       </c>
       <c r="W13" t="n">
-        <v>494.2769811582496</v>
+        <v>1206.249769389855</v>
       </c>
       <c r="X13" t="n">
-        <v>494.2769811582496</v>
+        <v>982.8063144364285</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.2769811582496</v>
+        <v>766.5598312374891</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1298.508755595814</v>
       </c>
       <c r="F14" t="n">
-        <v>892.0689467507975</v>
+        <v>892.0689467507974</v>
       </c>
       <c r="G14" t="n">
-        <v>480.435148963805</v>
+        <v>480.4351489638047</v>
       </c>
       <c r="H14" t="n">
-        <v>176.0560379885155</v>
+        <v>176.0560379885151</v>
       </c>
       <c r="I14" t="n">
         <v>95.91051668648366</v>
@@ -5279,7 +5279,7 @@
         <v>360.0728659043561</v>
       </c>
       <c r="K14" t="n">
-        <v>876.7285546048008</v>
+        <v>876.728554604801</v>
       </c>
       <c r="L14" t="n">
         <v>1569.962249801048</v>
@@ -5288,10 +5288,10 @@
         <v>2357.924853012898</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.005517388442</v>
       </c>
       <c r="O14" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304323</v>
       </c>
       <c r="P14" t="n">
         <v>4398.3639873699</v>
@@ -5309,19 +5309,19 @@
         <v>4458.265905366892</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.192929099194</v>
+        <v>4209.192929099195</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.676137700214</v>
+        <v>3882.676137700215</v>
       </c>
       <c r="W14" t="n">
-        <v>3534.45357837469</v>
+        <v>3534.453578374691</v>
       </c>
       <c r="X14" t="n">
-        <v>3165.533916058201</v>
+        <v>3165.533916058202</v>
       </c>
       <c r="Y14" t="n">
-        <v>2779.94068002698</v>
+        <v>2779.940680026981</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J15" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K15" t="n">
-        <v>665.857928842702</v>
+        <v>522.7040947248183</v>
       </c>
       <c r="L15" t="n">
-        <v>922.4625598856189</v>
+        <v>1130.43907474411</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.5918250888</v>
+        <v>1430.568339947291</v>
       </c>
       <c r="N15" t="n">
-        <v>1545.073263795156</v>
+        <v>1753.049778653647</v>
       </c>
       <c r="O15" t="n">
-        <v>1817.860983149891</v>
+        <v>2025.837498008382</v>
       </c>
       <c r="P15" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q15" t="n">
         <v>2624.228975484484</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.7625250439713</v>
+        <v>581.3089748212467</v>
       </c>
       <c r="C16" t="n">
-        <v>398.3724380606551</v>
+        <v>416.9188878379304</v>
       </c>
       <c r="D16" t="n">
-        <v>252.8018945929101</v>
+        <v>271.3483443701855</v>
       </c>
       <c r="E16" t="n">
-        <v>252.8018945929101</v>
+        <v>271.3483443701855</v>
       </c>
       <c r="F16" t="n">
-        <v>252.8018945929101</v>
+        <v>271.3483443701855</v>
       </c>
       <c r="G16" t="n">
-        <v>241.9982649781562</v>
+        <v>271.3483443701855</v>
       </c>
       <c r="H16" t="n">
-        <v>95.91051668648366</v>
+        <v>203.6290579012903</v>
       </c>
       <c r="I16" t="n">
         <v>95.91051668648366</v>
       </c>
       <c r="J16" t="n">
-        <v>111.0666786329386</v>
+        <v>111.0666786329384</v>
       </c>
       <c r="K16" t="n">
-        <v>262.9434072860048</v>
+        <v>262.9434072860045</v>
       </c>
       <c r="L16" t="n">
-        <v>511.5737232387091</v>
+        <v>511.5737232387088</v>
       </c>
       <c r="M16" t="n">
-        <v>783.8664469273061</v>
+        <v>783.8664469273052</v>
       </c>
       <c r="N16" t="n">
-        <v>1055.225219562731</v>
+        <v>1055.22521956273</v>
       </c>
       <c r="O16" t="n">
-        <v>1290.192805693336</v>
+        <v>1290.192805693335</v>
       </c>
       <c r="P16" t="n">
-        <v>1468.370553908189</v>
+        <v>1468.370553908188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="R16" t="n">
-        <v>1402.046748149676</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="S16" t="n">
-        <v>1206.249769389856</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="T16" t="n">
-        <v>1206.249769389856</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="U16" t="n">
-        <v>1206.249769389856</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="V16" t="n">
-        <v>956.1113771285596</v>
+        <v>1259.528900998205</v>
       </c>
       <c r="W16" t="n">
-        <v>956.1113771285596</v>
+        <v>974.6578269058352</v>
       </c>
       <c r="X16" t="n">
-        <v>956.1113771285596</v>
+        <v>974.6578269058352</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.8648939296203</v>
+        <v>758.4113437068958</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.886935907449</v>
+        <v>2397.886935907448</v>
       </c>
       <c r="C17" t="n">
-        <v>2033.470514911628</v>
+        <v>2033.470514911627</v>
       </c>
       <c r="D17" t="n">
         <v>1679.750912249468</v>
@@ -5501,10 +5501,10 @@
         <v>1298.508755595814</v>
       </c>
       <c r="F17" t="n">
-        <v>892.0689467507975</v>
+        <v>892.0689467507971</v>
       </c>
       <c r="G17" t="n">
-        <v>480.4351489638046</v>
+        <v>480.4351489638047</v>
       </c>
       <c r="H17" t="n">
         <v>176.0560379885151</v>
@@ -5516,7 +5516,7 @@
         <v>360.0728659043561</v>
       </c>
       <c r="K17" t="n">
-        <v>876.7285546048008</v>
+        <v>876.7285546048006</v>
       </c>
       <c r="L17" t="n">
         <v>1569.962249801048</v>
@@ -5534,16 +5534,16 @@
         <v>4398.3639873699</v>
       </c>
       <c r="Q17" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154367</v>
       </c>
       <c r="R17" t="n">
         <v>4795.525834324183</v>
       </c>
       <c r="S17" t="n">
-        <v>4664.545391294558</v>
+        <v>4664.545391294559</v>
       </c>
       <c r="T17" t="n">
-        <v>4458.265905366892</v>
+        <v>4458.265905366893</v>
       </c>
       <c r="U17" t="n">
         <v>4209.192929099193</v>
@@ -5558,7 +5558,7 @@
         <v>3165.533916058201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2779.94068002698</v>
+        <v>2779.940680026979</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J18" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K18" t="n">
-        <v>404.0373442002492</v>
+        <v>448.0585395943938</v>
       </c>
       <c r="L18" t="n">
-        <v>644.6403823691159</v>
+        <v>1055.793519613685</v>
       </c>
       <c r="M18" t="n">
-        <v>944.7696475722973</v>
+        <v>1355.922784816866</v>
       </c>
       <c r="N18" t="n">
-        <v>1741.800036878771</v>
+        <v>1678.404223523222</v>
       </c>
       <c r="O18" t="n">
         <v>2341.11563896192</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.91051668648366</v>
+        <v>785.3934881193692</v>
       </c>
       <c r="C19" t="n">
-        <v>95.91051668648366</v>
+        <v>621.0034011360528</v>
       </c>
       <c r="D19" t="n">
-        <v>95.91051668648366</v>
+        <v>513.3703079370001</v>
       </c>
       <c r="E19" t="n">
-        <v>95.91051668648366</v>
+        <v>513.3703079370001</v>
       </c>
       <c r="F19" t="n">
-        <v>95.91051668648366</v>
+        <v>513.3703079370001</v>
       </c>
       <c r="G19" t="n">
-        <v>95.91051668648366</v>
+        <v>349.7168061929628</v>
       </c>
       <c r="H19" t="n">
-        <v>95.91051668648366</v>
+        <v>203.6290579012902</v>
       </c>
       <c r="I19" t="n">
         <v>95.91051668648366</v>
@@ -5674,13 +5674,13 @@
         <v>111.0666786329385</v>
       </c>
       <c r="K19" t="n">
-        <v>262.9434072860047</v>
+        <v>262.9434072860046</v>
       </c>
       <c r="L19" t="n">
-        <v>511.573723238709</v>
+        <v>511.5737232387089</v>
       </c>
       <c r="M19" t="n">
-        <v>783.8664469273058</v>
+        <v>783.8664469273056</v>
       </c>
       <c r="N19" t="n">
         <v>1055.225219562731</v>
@@ -5698,25 +5698,25 @@
         <v>1509.667293259502</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.870314499682</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="T19" t="n">
-        <v>1094.527270470408</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="U19" t="n">
-        <v>809.9434034826411</v>
+        <v>1225.083426271735</v>
       </c>
       <c r="V19" t="n">
-        <v>559.8050112213449</v>
+        <v>1225.083426271735</v>
       </c>
       <c r="W19" t="n">
-        <v>274.9339371289751</v>
+        <v>1225.083426271735</v>
       </c>
       <c r="X19" t="n">
-        <v>95.91051668648366</v>
+        <v>1001.639971318309</v>
       </c>
       <c r="Y19" t="n">
-        <v>95.91051668648366</v>
+        <v>785.3934881193692</v>
       </c>
     </row>
     <row r="20">
@@ -5735,28 +5735,28 @@
         <v>1679.750912249468</v>
       </c>
       <c r="E20" t="n">
-        <v>1298.508755595815</v>
+        <v>1298.508755595814</v>
       </c>
       <c r="F20" t="n">
-        <v>892.0689467507982</v>
+        <v>892.0689467507973</v>
       </c>
       <c r="G20" t="n">
-        <v>480.4351489638057</v>
+        <v>480.4351489638047</v>
       </c>
       <c r="H20" t="n">
-        <v>176.0560379885162</v>
+        <v>176.0560379885151</v>
       </c>
       <c r="I20" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J20" t="n">
-        <v>360.0728659043561</v>
+        <v>360.0728659043554</v>
       </c>
       <c r="K20" t="n">
-        <v>876.7285546048006</v>
+        <v>876.7285546048001</v>
       </c>
       <c r="L20" t="n">
-        <v>1569.962249801048</v>
+        <v>1569.962249801047</v>
       </c>
       <c r="M20" t="n">
         <v>2357.924853012898</v>
@@ -5771,28 +5771,28 @@
         <v>4398.3639873699</v>
       </c>
       <c r="Q20" t="n">
-        <v>4739.630612154367</v>
+        <v>4739.630612154366</v>
       </c>
       <c r="R20" t="n">
-        <v>4795.525834324184</v>
+        <v>4795.525834324183</v>
       </c>
       <c r="S20" t="n">
-        <v>4664.545391294559</v>
+        <v>4664.545391294558</v>
       </c>
       <c r="T20" t="n">
-        <v>4458.265905366894</v>
+        <v>4458.265905366892</v>
       </c>
       <c r="U20" t="n">
-        <v>4209.192929099194</v>
+        <v>4209.192929099193</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.676137700214</v>
+        <v>3882.676137700213</v>
       </c>
       <c r="W20" t="n">
-        <v>3534.453578374691</v>
+        <v>3534.45357837469</v>
       </c>
       <c r="X20" t="n">
-        <v>3165.533916058202</v>
+        <v>3165.533916058201</v>
       </c>
       <c r="Y20" t="n">
         <v>2779.94068002698</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4302588394913</v>
+        <v>987.4302588394911</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9772295583643</v>
+        <v>812.9772295583641</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0428198971131</v>
+        <v>664.0428198971128</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8053648916575</v>
+        <v>504.8053648916574</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2708069185425</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G21" t="n">
         <v>221.3151721997858</v>
@@ -5826,28 +5826,28 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I21" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J21" t="n">
-        <v>134.7202975173784</v>
+        <v>147.4489039369239</v>
       </c>
       <c r="K21" t="n">
-        <v>279.2072192132445</v>
+        <v>291.9358256327899</v>
       </c>
       <c r="L21" t="n">
-        <v>886.9421992325357</v>
+        <v>532.5388638016566</v>
       </c>
       <c r="M21" t="n">
-        <v>1187.071464435717</v>
+        <v>832.668129004838</v>
       </c>
       <c r="N21" t="n">
-        <v>1509.552903142073</v>
+        <v>1155.149567711194</v>
       </c>
       <c r="O21" t="n">
-        <v>2172.26431858077</v>
+        <v>1817.860983149891</v>
       </c>
       <c r="P21" t="n">
-        <v>2540.718766890972</v>
+        <v>2332.742252032482</v>
       </c>
       <c r="Q21" t="n">
         <v>2624.228975484484</v>
@@ -5865,7 +5865,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.494751558248</v>
+        <v>1825.494751558247</v>
       </c>
       <c r="W21" t="n">
         <v>1571.257394830046</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.91051668648367</v>
+        <v>785.2544411116598</v>
       </c>
       <c r="C22" t="n">
-        <v>95.91051668648367</v>
+        <v>620.8643541283436</v>
       </c>
       <c r="D22" t="n">
-        <v>95.91051668648367</v>
+        <v>475.2938106605985</v>
       </c>
       <c r="E22" t="n">
-        <v>95.91051668648367</v>
+        <v>475.2938106605985</v>
       </c>
       <c r="F22" t="n">
-        <v>95.91051668648367</v>
+        <v>332.9499591072789</v>
       </c>
       <c r="G22" t="n">
-        <v>95.91051668648367</v>
+        <v>332.9499591072789</v>
       </c>
       <c r="H22" t="n">
-        <v>95.91051668648367</v>
+        <v>186.8622108156063</v>
       </c>
       <c r="I22" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J22" t="n">
-        <v>111.0666786329386</v>
+        <v>111.0666786329384</v>
       </c>
       <c r="K22" t="n">
-        <v>262.9434072860048</v>
+        <v>262.9434072860045</v>
       </c>
       <c r="L22" t="n">
-        <v>511.5737232387092</v>
+        <v>511.5737232387088</v>
       </c>
       <c r="M22" t="n">
-        <v>783.866446927306</v>
+        <v>783.8664469273057</v>
       </c>
       <c r="N22" t="n">
         <v>1055.225219562731</v>
@@ -5926,34 +5926,34 @@
         <v>1290.192805693336</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.370553908189</v>
+        <v>1468.370553908188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="R22" t="n">
-        <v>1509.667293259503</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.870314499683</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="T22" t="n">
-        <v>1138.947304981343</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="U22" t="n">
-        <v>854.3634379935762</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="V22" t="n">
-        <v>604.2250457322801</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="W22" t="n">
-        <v>319.3539716399102</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="X22" t="n">
-        <v>95.91051668648367</v>
+        <v>1178.603293196248</v>
       </c>
       <c r="Y22" t="n">
-        <v>95.91051668648367</v>
+        <v>962.3568099973089</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>2033.470514911628</v>
       </c>
       <c r="D23" t="n">
-        <v>1679.750912249469</v>
+        <v>1679.750912249468</v>
       </c>
       <c r="E23" t="n">
-        <v>1298.508755595815</v>
+        <v>1298.508755595814</v>
       </c>
       <c r="F23" t="n">
-        <v>892.0689467507984</v>
+        <v>892.0689467507973</v>
       </c>
       <c r="G23" t="n">
-        <v>480.4351489638059</v>
+        <v>480.4351489638047</v>
       </c>
       <c r="H23" t="n">
-        <v>176.0560379885164</v>
+        <v>176.0560379885151</v>
       </c>
       <c r="I23" t="n">
         <v>95.91051668648366</v>
       </c>
       <c r="J23" t="n">
-        <v>360.0728659043555</v>
+        <v>360.0728659043561</v>
       </c>
       <c r="K23" t="n">
-        <v>876.7285546048001</v>
+        <v>876.7285546048008</v>
       </c>
       <c r="L23" t="n">
-        <v>1569.962249801047</v>
+        <v>1569.962249801048</v>
       </c>
       <c r="M23" t="n">
-        <v>2357.924853012897</v>
+        <v>2357.924853012898</v>
       </c>
       <c r="N23" t="n">
-        <v>3144.00551738844</v>
+        <v>3144.005517388441</v>
       </c>
       <c r="O23" t="n">
-        <v>3841.091560304321</v>
+        <v>3841.091560304322</v>
       </c>
       <c r="P23" t="n">
-        <v>4398.363987369899</v>
+        <v>4398.3639873699</v>
       </c>
       <c r="Q23" t="n">
         <v>4739.630612154366</v>
@@ -6017,19 +6017,19 @@
         <v>4664.545391294558</v>
       </c>
       <c r="T23" t="n">
-        <v>4458.265905366893</v>
+        <v>4458.265905366892</v>
       </c>
       <c r="U23" t="n">
-        <v>4209.192929099194</v>
+        <v>4209.192929099193</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.676137700214</v>
+        <v>3882.676137700213</v>
       </c>
       <c r="W23" t="n">
-        <v>3534.453578374691</v>
+        <v>3534.45357837469</v>
       </c>
       <c r="X23" t="n">
-        <v>3165.533916058202</v>
+        <v>3165.533916058201</v>
       </c>
       <c r="Y23" t="n">
         <v>2779.94068002698</v>
@@ -6066,25 +6066,25 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J24" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K24" t="n">
-        <v>665.857928842702</v>
+        <v>522.7040947248183</v>
       </c>
       <c r="L24" t="n">
-        <v>922.4625598856189</v>
+        <v>1130.43907474411</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.5918250888</v>
+        <v>1430.568339947291</v>
       </c>
       <c r="N24" t="n">
-        <v>1545.073263795156</v>
+        <v>1753.049778653647</v>
       </c>
       <c r="O24" t="n">
-        <v>1817.860983149891</v>
+        <v>2025.837498008382</v>
       </c>
       <c r="P24" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q24" t="n">
         <v>2624.228975484484</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.0187643599959</v>
+        <v>423.9541054138373</v>
       </c>
       <c r="C25" t="n">
-        <v>549.0187643599959</v>
+        <v>259.564018430521</v>
       </c>
       <c r="D25" t="n">
-        <v>549.0187643599959</v>
+        <v>259.564018430521</v>
       </c>
       <c r="E25" t="n">
-        <v>405.6517667221933</v>
+        <v>259.564018430521</v>
       </c>
       <c r="F25" t="n">
-        <v>405.6517667221933</v>
+        <v>259.564018430521</v>
       </c>
       <c r="G25" t="n">
-        <v>241.9982649781561</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="H25" t="n">
         <v>95.91051668648366</v>
@@ -6145,52 +6145,52 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J25" t="n">
-        <v>111.0666786329386</v>
+        <v>111.0666786329385</v>
       </c>
       <c r="K25" t="n">
-        <v>262.9434072860048</v>
+        <v>262.9434072860046</v>
       </c>
       <c r="L25" t="n">
-        <v>511.5737232387092</v>
+        <v>511.5737232387089</v>
       </c>
       <c r="M25" t="n">
-        <v>783.8664469273062</v>
+        <v>783.8664469273056</v>
       </c>
       <c r="N25" t="n">
         <v>1055.225219562731</v>
       </c>
       <c r="O25" t="n">
-        <v>1290.192805693337</v>
+        <v>1290.192805693336</v>
       </c>
       <c r="P25" t="n">
-        <v>1468.370553908189</v>
+        <v>1468.370553908188</v>
       </c>
       <c r="Q25" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259502</v>
       </c>
       <c r="R25" t="n">
-        <v>1402.046748149677</v>
+        <v>1402.046748149675</v>
       </c>
       <c r="S25" t="n">
-        <v>1206.249769389857</v>
+        <v>1260.089456481127</v>
       </c>
       <c r="T25" t="n">
-        <v>1206.249769389857</v>
+        <v>1040.746412451853</v>
       </c>
       <c r="U25" t="n">
-        <v>921.6659024020903</v>
+        <v>1040.746412451853</v>
       </c>
       <c r="V25" t="n">
-        <v>921.6659024020903</v>
+        <v>1040.746412451853</v>
       </c>
       <c r="W25" t="n">
-        <v>636.7948283097205</v>
+        <v>1040.746412451853</v>
       </c>
       <c r="X25" t="n">
-        <v>636.7948283097205</v>
+        <v>817.3029574984258</v>
       </c>
       <c r="Y25" t="n">
-        <v>549.0187643599959</v>
+        <v>601.0564742994864</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2402.234566219342</v>
+        <v>2361.518168350723</v>
       </c>
       <c r="C26" t="n">
-        <v>2033.27204927893</v>
+        <v>1992.555651410311</v>
       </c>
       <c r="D26" t="n">
-        <v>1695.364549606489</v>
+        <v>1654.64815173787</v>
       </c>
       <c r="E26" t="n">
-        <v>1309.576297008245</v>
+        <v>1289.218098073935</v>
       </c>
       <c r="F26" t="n">
-        <v>898.5903922186376</v>
+        <v>898.5903922186374</v>
       </c>
       <c r="G26" t="n">
-        <v>482.4104984870543</v>
+        <v>489.527340852986</v>
       </c>
       <c r="H26" t="n">
         <v>180.6021339331058</v>
@@ -6227,7 +6227,7 @@
         <v>360.0728659043561</v>
       </c>
       <c r="K26" t="n">
-        <v>876.7285546048008</v>
+        <v>876.728554604801</v>
       </c>
       <c r="L26" t="n">
         <v>1569.962249801048</v>
@@ -6236,10 +6236,10 @@
         <v>2357.924853012898</v>
       </c>
       <c r="N26" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.005517388442</v>
       </c>
       <c r="O26" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304323</v>
       </c>
       <c r="P26" t="n">
         <v>4398.3639873699</v>
@@ -6251,25 +6251,25 @@
         <v>4795.525834324183</v>
       </c>
       <c r="S26" t="n">
-        <v>4680.357494284277</v>
+        <v>4659.999295349967</v>
       </c>
       <c r="T26" t="n">
-        <v>4489.890111346331</v>
+        <v>4449.173713477711</v>
       </c>
       <c r="U26" t="n">
-        <v>4236.271039134041</v>
+        <v>4195.554641265421</v>
       </c>
       <c r="V26" t="n">
-        <v>3905.20815179047</v>
+        <v>3864.49175392185</v>
       </c>
       <c r="W26" t="n">
-        <v>3552.439496520356</v>
+        <v>3511.723098651736</v>
       </c>
       <c r="X26" t="n">
-        <v>3178.973738259276</v>
+        <v>3138.257340390656</v>
       </c>
       <c r="Y26" t="n">
-        <v>2788.834406283464</v>
+        <v>2748.118008414845</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J27" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K27" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L27" t="n">
-        <v>922.4625598856189</v>
+        <v>886.9421992325357</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.5918250888</v>
+        <v>1648.119477548217</v>
       </c>
       <c r="N27" t="n">
-        <v>1545.073263795156</v>
+        <v>1970.600916254573</v>
       </c>
       <c r="O27" t="n">
-        <v>1817.860983149891</v>
+        <v>2243.388635609308</v>
       </c>
       <c r="P27" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q27" t="n">
         <v>2624.228975484484</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.91051668648366</v>
+        <v>247.1587860089724</v>
       </c>
       <c r="C28" t="n">
-        <v>95.91051668648366</v>
+        <v>247.1587860089724</v>
       </c>
       <c r="D28" t="n">
-        <v>95.91051668648366</v>
+        <v>247.1587860089724</v>
       </c>
       <c r="E28" t="n">
-        <v>95.91051668648366</v>
+        <v>247.1587860089724</v>
       </c>
       <c r="F28" t="n">
-        <v>95.91051668648366</v>
+        <v>247.1587860089724</v>
       </c>
       <c r="G28" t="n">
-        <v>95.91051668648366</v>
+        <v>226.1861619884373</v>
       </c>
       <c r="H28" t="n">
         <v>95.91051668648366</v>
@@ -6382,52 +6382,52 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J28" t="n">
-        <v>126.5641207731617</v>
+        <v>126.564120773162</v>
       </c>
       <c r="K28" t="n">
-        <v>293.9382915664512</v>
+        <v>293.9382915664516</v>
       </c>
       <c r="L28" t="n">
-        <v>558.0660496593789</v>
+        <v>558.0660496593794</v>
       </c>
       <c r="M28" t="n">
-        <v>845.8562154881992</v>
+        <v>845.8562154881997</v>
       </c>
       <c r="N28" t="n">
         <v>1132.712430263848</v>
       </c>
       <c r="O28" t="n">
-        <v>1383.177458534676</v>
+        <v>1383.177458534677</v>
       </c>
       <c r="P28" t="n">
-        <v>1576.852648889752</v>
+        <v>1576.852648889753</v>
       </c>
       <c r="Q28" t="n">
-        <v>1633.646830381289</v>
+        <v>1633.64683038129</v>
       </c>
       <c r="R28" t="n">
-        <v>1633.646830381289</v>
+        <v>1541.838388261182</v>
       </c>
       <c r="S28" t="n">
-        <v>1453.661954611188</v>
+        <v>1361.853512491081</v>
       </c>
       <c r="T28" t="n">
-        <v>1250.131013571632</v>
+        <v>1158.322571451525</v>
       </c>
       <c r="U28" t="n">
-        <v>981.3592495735846</v>
+        <v>889.5508074534778</v>
       </c>
       <c r="V28" t="n">
-        <v>747.0329603020073</v>
+        <v>655.2245181819006</v>
       </c>
       <c r="W28" t="n">
-        <v>477.9739891993562</v>
+        <v>655.2245181819006</v>
       </c>
       <c r="X28" t="n">
-        <v>270.3426372356486</v>
+        <v>447.5931662181929</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.91051668648366</v>
+        <v>247.1587860089724</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2422.592765153651</v>
+        <v>2422.592765153652</v>
       </c>
       <c r="C29" t="n">
-        <v>2053.63024821324</v>
+        <v>2053.630248213241</v>
       </c>
       <c r="D29" t="n">
-        <v>1695.364549606489</v>
+        <v>1695.36454960649</v>
       </c>
       <c r="E29" t="n">
-        <v>1316.693139374177</v>
+        <v>1309.576297008246</v>
       </c>
       <c r="F29" t="n">
-        <v>905.7072345845693</v>
+        <v>898.5903922186383</v>
       </c>
       <c r="G29" t="n">
-        <v>489.527340852986</v>
+        <v>482.410498487055</v>
       </c>
       <c r="H29" t="n">
         <v>180.6021339331058</v>
@@ -6488,25 +6488,25 @@
         <v>4795.525834324183</v>
       </c>
       <c r="S29" t="n">
-        <v>4659.999295349967</v>
+        <v>4680.357494284277</v>
       </c>
       <c r="T29" t="n">
-        <v>4449.173713477711</v>
+        <v>4489.890111346331</v>
       </c>
       <c r="U29" t="n">
-        <v>4215.91284019973</v>
+        <v>4256.629238068351</v>
       </c>
       <c r="V29" t="n">
-        <v>3905.208151790469</v>
+        <v>3925.56635072478</v>
       </c>
       <c r="W29" t="n">
-        <v>3552.439496520355</v>
+        <v>3572.797695454666</v>
       </c>
       <c r="X29" t="n">
-        <v>3178.973738259275</v>
+        <v>3199.331937193586</v>
       </c>
       <c r="Y29" t="n">
-        <v>2809.192605217773</v>
+        <v>2809.192605217774</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J30" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K30" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L30" t="n">
-        <v>913.5946029812374</v>
+        <v>519.8102573821111</v>
       </c>
       <c r="M30" t="n">
-        <v>1213.723868184419</v>
+        <v>1280.987535697792</v>
       </c>
       <c r="N30" t="n">
-        <v>1536.205306890775</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.99302624551</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q30" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R30" t="n">
         <v>2624.228975484484</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>720.020642179528</v>
+        <v>892.3601611792104</v>
       </c>
       <c r="C31" t="n">
-        <v>720.020642179528</v>
+        <v>743.7821771856131</v>
       </c>
       <c r="D31" t="n">
-        <v>720.020642179528</v>
+        <v>614.0237367075871</v>
       </c>
       <c r="E31" t="n">
-        <v>592.4657475314443</v>
+        <v>486.4688420595036</v>
       </c>
       <c r="F31" t="n">
-        <v>465.9339989678435</v>
+        <v>359.9370934959028</v>
       </c>
       <c r="G31" t="n">
-        <v>318.092600213525</v>
+        <v>212.0956947415845</v>
       </c>
       <c r="H31" t="n">
-        <v>187.8169549115714</v>
+        <v>187.8169549115713</v>
       </c>
       <c r="I31" t="n">
         <v>95.91051668648366</v>
       </c>
       <c r="J31" t="n">
-        <v>126.5641207731619</v>
+        <v>126.564120773162</v>
       </c>
       <c r="K31" t="n">
-        <v>293.9382915664514</v>
+        <v>293.9382915664517</v>
       </c>
       <c r="L31" t="n">
-        <v>558.0660496593791</v>
+        <v>558.0660496593796</v>
       </c>
       <c r="M31" t="n">
-        <v>845.8562154881994</v>
+        <v>845.8562154882</v>
       </c>
       <c r="N31" t="n">
-        <v>1132.712430263848</v>
+        <v>1132.712430263849</v>
       </c>
       <c r="O31" t="n">
         <v>1383.177458534677</v>
       </c>
       <c r="P31" t="n">
-        <v>1576.852648889752</v>
+        <v>1576.852648889753</v>
       </c>
       <c r="Q31" t="n">
         <v>1633.64683038129</v>
       </c>
       <c r="R31" t="n">
-        <v>1633.64683038129</v>
+        <v>1541.838388261183</v>
       </c>
       <c r="S31" t="n">
-        <v>1453.661954611188</v>
+        <v>1361.853512491082</v>
       </c>
       <c r="T31" t="n">
-        <v>1250.131013571632</v>
+        <v>1361.853512491082</v>
       </c>
       <c r="U31" t="n">
-        <v>981.3592495735847</v>
+        <v>1361.853512491082</v>
       </c>
       <c r="V31" t="n">
-        <v>927.6519941432358</v>
+        <v>1361.853512491082</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6519941432358</v>
+        <v>1092.794541388431</v>
       </c>
       <c r="X31" t="n">
-        <v>720.020642179528</v>
+        <v>1092.794541388431</v>
       </c>
       <c r="Y31" t="n">
-        <v>720.020642179528</v>
+        <v>892.3601611792104</v>
       </c>
     </row>
     <row r="32">
@@ -6734,16 +6734,16 @@
         <v>4195.554641265421</v>
       </c>
       <c r="V32" t="n">
-        <v>3864.49175392185</v>
+        <v>3932.683193090711</v>
       </c>
       <c r="W32" t="n">
-        <v>3511.723098651736</v>
+        <v>3579.914537820597</v>
       </c>
       <c r="X32" t="n">
-        <v>3138.257340390656</v>
+        <v>3206.448779559517</v>
       </c>
       <c r="Y32" t="n">
-        <v>2748.118008414845</v>
+        <v>2816.309447583705</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J33" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K33" t="n">
-        <v>665.857928842702</v>
+        <v>541.0278038556972</v>
       </c>
       <c r="L33" t="n">
-        <v>913.5946029812374</v>
+        <v>1148.762783874989</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.723868184419</v>
+        <v>1448.89204907817</v>
       </c>
       <c r="N33" t="n">
-        <v>1536.205306890775</v>
+        <v>1771.373487784526</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.99302624551</v>
+        <v>2044.161207139261</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q33" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R33" t="n">
         <v>2624.228975484484</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>651.4378096008289</v>
+        <v>651.4378096008286</v>
       </c>
       <c r="C34" t="n">
-        <v>552.4197194715633</v>
+        <v>552.419719471563</v>
       </c>
       <c r="D34" t="n">
-        <v>472.2211728578689</v>
+        <v>472.2211728578686</v>
       </c>
       <c r="E34" t="n">
-        <v>394.2261720741171</v>
+        <v>394.2261720741168</v>
       </c>
       <c r="F34" t="n">
-        <v>317.2543173748481</v>
+        <v>317.2543173748477</v>
       </c>
       <c r="G34" t="n">
-        <v>218.9728124848614</v>
+        <v>218.9728124848612</v>
       </c>
       <c r="H34" t="n">
         <v>138.2570610472395</v>
@@ -6856,13 +6856,13 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J34" t="n">
-        <v>175.1377727495933</v>
+        <v>175.1377727495936</v>
       </c>
       <c r="K34" t="n">
-        <v>391.0855955193144</v>
+        <v>391.0855955193147</v>
       </c>
       <c r="L34" t="n">
-        <v>703.7870055886738</v>
+        <v>703.7870055886741</v>
       </c>
       <c r="M34" t="n">
         <v>1040.150823393926</v>
@@ -6892,16 +6892,16 @@
         <v>1476.379598722257</v>
       </c>
       <c r="V34" t="n">
-        <v>1291.613203315012</v>
+        <v>1291.613203315011</v>
       </c>
       <c r="W34" t="n">
         <v>1072.114126076692</v>
       </c>
       <c r="X34" t="n">
-        <v>914.0426679773161</v>
+        <v>914.0426679773157</v>
       </c>
       <c r="Y34" t="n">
-        <v>763.1681816324273</v>
+        <v>763.1681816324269</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1992.555651410312</v>
       </c>
       <c r="D35" t="n">
-        <v>1634.289952803561</v>
+        <v>1702.481391972421</v>
       </c>
       <c r="E35" t="n">
-        <v>1248.501700205317</v>
+        <v>1316.693139374177</v>
       </c>
       <c r="F35" t="n">
-        <v>837.5157954157096</v>
+        <v>905.7072345845693</v>
       </c>
       <c r="G35" t="n">
-        <v>421.3359016841263</v>
+        <v>489.527340852986</v>
       </c>
       <c r="H35" t="n">
         <v>180.6021339331058</v>
@@ -6935,25 +6935,25 @@
         <v>95.91051668648367</v>
       </c>
       <c r="J35" t="n">
-        <v>360.0728659043561</v>
+        <v>360.0728659043572</v>
       </c>
       <c r="K35" t="n">
-        <v>876.7285546048006</v>
+        <v>876.7285546048018</v>
       </c>
       <c r="L35" t="n">
-        <v>1569.962249801048</v>
+        <v>1569.962249801049</v>
       </c>
       <c r="M35" t="n">
         <v>2357.924853012898</v>
       </c>
       <c r="N35" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.005517388442</v>
       </c>
       <c r="O35" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304323</v>
       </c>
       <c r="P35" t="n">
-        <v>4398.3639873699</v>
+        <v>4398.363987369901</v>
       </c>
       <c r="Q35" t="n">
         <v>4739.630612154367</v>
@@ -7014,28 +7014,28 @@
         <v>95.91051668648367</v>
       </c>
       <c r="J36" t="n">
-        <v>259.5504225043832</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K36" t="n">
-        <v>665.857928842702</v>
+        <v>541.0278038556974</v>
       </c>
       <c r="L36" t="n">
-        <v>913.5946029812374</v>
+        <v>1148.762783874989</v>
       </c>
       <c r="M36" t="n">
-        <v>1213.723868184419</v>
+        <v>1448.89204907817</v>
       </c>
       <c r="N36" t="n">
-        <v>1536.205306890775</v>
+        <v>1771.373487784526</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.99302624551</v>
+        <v>2044.161207139261</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q36" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R36" t="n">
         <v>2624.228975484484</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>651.4378096008288</v>
+        <v>651.4378096008286</v>
       </c>
       <c r="C37" t="n">
-        <v>552.4197194715632</v>
+        <v>552.419719471563</v>
       </c>
       <c r="D37" t="n">
-        <v>472.2211728578688</v>
+        <v>472.2211728578686</v>
       </c>
       <c r="E37" t="n">
-        <v>394.226172074117</v>
+        <v>394.2261720741168</v>
       </c>
       <c r="F37" t="n">
-        <v>317.254317374848</v>
+        <v>317.2543173748478</v>
       </c>
       <c r="G37" t="n">
-        <v>218.9728124848614</v>
+        <v>218.9728124848612</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2570610472395</v>
+        <v>138.2570610472396</v>
       </c>
       <c r="I37" t="n">
         <v>95.91051668648367</v>
       </c>
       <c r="J37" t="n">
-        <v>175.1377727495936</v>
+        <v>175.1377727495935</v>
       </c>
       <c r="K37" t="n">
-        <v>391.0855955193147</v>
+        <v>391.0855955193144</v>
       </c>
       <c r="L37" t="n">
-        <v>703.787005588674</v>
+        <v>703.7870055886738</v>
       </c>
       <c r="M37" t="n">
-        <v>1040.150823393926</v>
+        <v>1040.150823393925</v>
       </c>
       <c r="N37" t="n">
         <v>1375.580690146006</v>
@@ -7117,7 +7117,7 @@
         <v>2022.236046192742</v>
       </c>
       <c r="R37" t="n">
-        <v>1979.987497936967</v>
+        <v>1979.987497936966</v>
       </c>
       <c r="S37" t="n">
         <v>1849.562516031197</v>
@@ -7138,7 +7138,7 @@
         <v>914.0426679773159</v>
       </c>
       <c r="Y37" t="n">
-        <v>763.1681816324271</v>
+        <v>763.1681816324269</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>180.6021339331058</v>
       </c>
       <c r="I38" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J38" t="n">
-        <v>360.0728659043552</v>
+        <v>360.0728659043561</v>
       </c>
       <c r="K38" t="n">
         <v>876.7285546048006</v>
@@ -7193,31 +7193,31 @@
         <v>4398.3639873699</v>
       </c>
       <c r="Q38" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154367</v>
       </c>
       <c r="R38" t="n">
-        <v>4795.525834324183</v>
+        <v>4795.525834324184</v>
       </c>
       <c r="S38" t="n">
-        <v>4659.999295349967</v>
+        <v>4659.999295349968</v>
       </c>
       <c r="T38" t="n">
-        <v>4449.173713477711</v>
+        <v>4517.365152646572</v>
       </c>
       <c r="U38" t="n">
-        <v>4195.554641265421</v>
+        <v>4263.746080434282</v>
       </c>
       <c r="V38" t="n">
-        <v>3864.49175392185</v>
+        <v>3932.683193090711</v>
       </c>
       <c r="W38" t="n">
-        <v>3511.723098651736</v>
+        <v>3579.914537820597</v>
       </c>
       <c r="X38" t="n">
-        <v>3138.257340390656</v>
+        <v>3206.448779559517</v>
       </c>
       <c r="Y38" t="n">
-        <v>2748.118008414845</v>
+        <v>2816.309447583705</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4302588394911</v>
+        <v>987.4302588394913</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9772295583641</v>
+        <v>812.9772295583643</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0428198971128</v>
+        <v>664.0428198971131</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8053648916574</v>
+        <v>504.8053648916575</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2708069185424</v>
+        <v>358.2708069185425</v>
       </c>
       <c r="G39" t="n">
         <v>221.3151721997858</v>
@@ -7248,31 +7248,31 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I39" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J39" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K39" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L39" t="n">
-        <v>913.5946029812374</v>
+        <v>519.8102573821111</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.723868184419</v>
+        <v>1280.987535697792</v>
       </c>
       <c r="N39" t="n">
-        <v>1536.205306890775</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.99302624551</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q39" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R39" t="n">
         <v>2624.228975484484</v>
@@ -7287,7 +7287,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.494751558247</v>
+        <v>1825.494751558248</v>
       </c>
       <c r="W39" t="n">
         <v>1571.257394830046</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.4378096008284</v>
+        <v>651.4378096008294</v>
       </c>
       <c r="C40" t="n">
-        <v>552.4197194715628</v>
+        <v>552.4197194715638</v>
       </c>
       <c r="D40" t="n">
-        <v>472.2211728578685</v>
+        <v>472.2211728578694</v>
       </c>
       <c r="E40" t="n">
-        <v>394.2261720741167</v>
+        <v>394.2261720741176</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2543173748477</v>
+        <v>317.2543173748486</v>
       </c>
       <c r="G40" t="n">
-        <v>218.972812484861</v>
+        <v>218.9728124848614</v>
       </c>
       <c r="H40" t="n">
-        <v>138.2570610472392</v>
+        <v>138.2570610472396</v>
       </c>
       <c r="I40" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J40" t="n">
-        <v>175.1377727495935</v>
+        <v>175.1377727495936</v>
       </c>
       <c r="K40" t="n">
         <v>391.0855955193147</v>
       </c>
       <c r="L40" t="n">
-        <v>703.787005588674</v>
+        <v>703.7870055886741</v>
       </c>
       <c r="M40" t="n">
         <v>1040.150823393926</v>
@@ -7348,34 +7348,34 @@
         <v>1674.619370393266</v>
       </c>
       <c r="P40" t="n">
-        <v>1916.868212724773</v>
+        <v>1916.868212724774</v>
       </c>
       <c r="Q40" t="n">
-        <v>2022.236046192742</v>
+        <v>2022.236046192743</v>
       </c>
       <c r="R40" t="n">
-        <v>1979.987497936966</v>
+        <v>1979.987497936967</v>
       </c>
       <c r="S40" t="n">
         <v>1849.562516031197</v>
       </c>
       <c r="T40" t="n">
-        <v>1695.591468855972</v>
+        <v>1695.591468855973</v>
       </c>
       <c r="U40" t="n">
         <v>1476.379598722257</v>
       </c>
       <c r="V40" t="n">
-        <v>1291.613203315011</v>
+        <v>1291.613203315012</v>
       </c>
       <c r="W40" t="n">
-        <v>1072.114126076691</v>
+        <v>1072.114126076693</v>
       </c>
       <c r="X40" t="n">
-        <v>914.0426679773154</v>
+        <v>914.0426679773166</v>
       </c>
       <c r="Y40" t="n">
-        <v>763.1681816324267</v>
+        <v>763.1681816324277</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2361.518168350723</v>
+        <v>2429.709607519583</v>
       </c>
       <c r="C41" t="n">
         <v>2060.747090579172</v>
@@ -7442,19 +7442,19 @@
         <v>4449.173713477711</v>
       </c>
       <c r="U41" t="n">
-        <v>4195.554641265421</v>
+        <v>4263.746080434282</v>
       </c>
       <c r="V41" t="n">
-        <v>3864.49175392185</v>
+        <v>3932.683193090711</v>
       </c>
       <c r="W41" t="n">
-        <v>3511.723098651736</v>
+        <v>3579.914537820597</v>
       </c>
       <c r="X41" t="n">
-        <v>3138.257340390656</v>
+        <v>3206.448779559517</v>
       </c>
       <c r="Y41" t="n">
-        <v>2748.118008414845</v>
+        <v>2816.309447583705</v>
       </c>
     </row>
     <row r="42">
@@ -7476,7 +7476,7 @@
         <v>504.8053648916574</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2708069185423</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G42" t="n">
         <v>221.3151721997858</v>
@@ -7488,28 +7488,28 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J42" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K42" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L42" t="n">
-        <v>913.5946029812369</v>
+        <v>519.8102573821111</v>
       </c>
       <c r="M42" t="n">
-        <v>1213.723868184419</v>
+        <v>1280.987535697792</v>
       </c>
       <c r="N42" t="n">
-        <v>1536.205306890775</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.99302624551</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q42" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R42" t="n">
         <v>2624.228975484484</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.4378096008288</v>
+        <v>651.4378096008285</v>
       </c>
       <c r="C43" t="n">
-        <v>552.4197194715632</v>
+        <v>552.4197194715629</v>
       </c>
       <c r="D43" t="n">
-        <v>472.2211728578689</v>
+        <v>472.2211728578687</v>
       </c>
       <c r="E43" t="n">
-        <v>394.2261720741171</v>
+        <v>394.2261720741169</v>
       </c>
       <c r="F43" t="n">
-        <v>317.254317374848</v>
+        <v>317.2543173748479</v>
       </c>
       <c r="G43" t="n">
-        <v>218.9728124848614</v>
+        <v>218.9728124848613</v>
       </c>
       <c r="H43" t="n">
         <v>138.2570610472395</v>
@@ -7573,7 +7573,7 @@
         <v>391.0855955193147</v>
       </c>
       <c r="L43" t="n">
-        <v>703.7870055886741</v>
+        <v>703.787005588674</v>
       </c>
       <c r="M43" t="n">
         <v>1040.150823393926</v>
@@ -7603,16 +7603,16 @@
         <v>1476.379598722257</v>
       </c>
       <c r="V43" t="n">
-        <v>1291.613203315012</v>
+        <v>1291.613203315011</v>
       </c>
       <c r="W43" t="n">
-        <v>1072.114126076692</v>
+        <v>1072.114126076691</v>
       </c>
       <c r="X43" t="n">
-        <v>914.0426679773161</v>
+        <v>914.0426679773155</v>
       </c>
       <c r="Y43" t="n">
-        <v>763.1681816324271</v>
+        <v>763.1681816324268</v>
       </c>
     </row>
     <row r="44">
@@ -7625,10 +7625,10 @@
         <v>2361.518168350723</v>
       </c>
       <c r="C44" t="n">
-        <v>1992.555651410312</v>
+        <v>1992.555651410311</v>
       </c>
       <c r="D44" t="n">
-        <v>1634.289952803561</v>
+        <v>1702.481391972421</v>
       </c>
       <c r="E44" t="n">
         <v>1316.693139374177</v>
@@ -7643,13 +7643,13 @@
         <v>180.6021339331058</v>
       </c>
       <c r="I44" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J44" t="n">
-        <v>360.0728659043561</v>
+        <v>360.0728659043563</v>
       </c>
       <c r="K44" t="n">
-        <v>876.7285546048006</v>
+        <v>876.7285546048009</v>
       </c>
       <c r="L44" t="n">
         <v>1569.962249801048</v>
@@ -7667,28 +7667,28 @@
         <v>4398.3639873699</v>
       </c>
       <c r="Q44" t="n">
-        <v>4739.630612154367</v>
+        <v>4739.630612154366</v>
       </c>
       <c r="R44" t="n">
-        <v>4795.525834324184</v>
+        <v>4795.525834324183</v>
       </c>
       <c r="S44" t="n">
-        <v>4659.999295349968</v>
+        <v>4659.999295349967</v>
       </c>
       <c r="T44" t="n">
-        <v>4449.173713477712</v>
+        <v>4449.173713477711</v>
       </c>
       <c r="U44" t="n">
-        <v>4195.554641265422</v>
+        <v>4195.554641265421</v>
       </c>
       <c r="V44" t="n">
-        <v>3864.491753921851</v>
+        <v>3864.49175392185</v>
       </c>
       <c r="W44" t="n">
-        <v>3511.723098651737</v>
+        <v>3511.723098651736</v>
       </c>
       <c r="X44" t="n">
-        <v>3138.257340390657</v>
+        <v>3138.257340390656</v>
       </c>
       <c r="Y44" t="n">
         <v>2748.118008414845</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4302588394913</v>
+        <v>987.4302588394911</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9772295583643</v>
+        <v>812.9772295583641</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0428198971131</v>
+        <v>664.0428198971128</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8053648916575</v>
+        <v>504.8053648916574</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2708069185425</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G45" t="n">
         <v>221.3151721997858</v>
@@ -7722,31 +7722,31 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I45" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J45" t="n">
-        <v>259.5504225043832</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K45" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L45" t="n">
-        <v>913.5946029812374</v>
+        <v>519.8102573821111</v>
       </c>
       <c r="M45" t="n">
-        <v>1213.723868184419</v>
+        <v>1280.987535697792</v>
       </c>
       <c r="N45" t="n">
-        <v>1536.205306890775</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.99302624551</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q45" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R45" t="n">
         <v>2624.228975484484</v>
@@ -7761,7 +7761,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.494751558248</v>
+        <v>1825.494751558247</v>
       </c>
       <c r="W45" t="n">
         <v>1571.257394830046</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.4378096008294</v>
+        <v>651.4378096008292</v>
       </c>
       <c r="C46" t="n">
-        <v>552.4197194715638</v>
+        <v>552.4197194715636</v>
       </c>
       <c r="D46" t="n">
-        <v>472.2211728578694</v>
+        <v>472.2211728578691</v>
       </c>
       <c r="E46" t="n">
-        <v>394.2261720741176</v>
+        <v>394.2261720741172</v>
       </c>
       <c r="F46" t="n">
-        <v>317.2543173748486</v>
+        <v>317.2543173748482</v>
       </c>
       <c r="G46" t="n">
-        <v>218.9728124848614</v>
+        <v>218.9728124848615</v>
       </c>
       <c r="H46" t="n">
         <v>138.2570610472396</v>
       </c>
       <c r="I46" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J46" t="n">
-        <v>175.1377727495938</v>
+        <v>175.1377727495935</v>
       </c>
       <c r="K46" t="n">
-        <v>391.0855955193151</v>
+        <v>391.0855955193147</v>
       </c>
       <c r="L46" t="n">
-        <v>703.7870055886744</v>
+        <v>703.7870055886739</v>
       </c>
       <c r="M46" t="n">
         <v>1040.150823393926</v>
@@ -7819,16 +7819,16 @@
         <v>1375.580690146006</v>
       </c>
       <c r="O46" t="n">
-        <v>1674.619370393267</v>
+        <v>1674.619370393266</v>
       </c>
       <c r="P46" t="n">
-        <v>1916.868212724774</v>
+        <v>1916.868212724773</v>
       </c>
       <c r="Q46" t="n">
-        <v>2022.236046192743</v>
+        <v>2022.236046192742</v>
       </c>
       <c r="R46" t="n">
-        <v>1979.987497936967</v>
+        <v>1979.987497936966</v>
       </c>
       <c r="S46" t="n">
         <v>1849.562516031197</v>
@@ -7843,13 +7843,13 @@
         <v>1291.613203315012</v>
       </c>
       <c r="W46" t="n">
-        <v>1072.114126076693</v>
+        <v>1072.114126076692</v>
       </c>
       <c r="X46" t="n">
-        <v>914.0426679773166</v>
+        <v>914.0426679773161</v>
       </c>
       <c r="Y46" t="n">
-        <v>763.1681816324277</v>
+        <v>763.1681816324276</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>135.688738078336</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>265.0858203424869</v>
       </c>
       <c r="P3" t="n">
         <v>124.5219861368073</v>
@@ -8295,7 +8295,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>139.6067899769681</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8304,10 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O6" t="n">
-        <v>275.9716853542989</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>276.9319975647686</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.0892530914983</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>36.56413758467285</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>245.9564399106807</v>
       </c>
       <c r="L15" t="n">
-        <v>16.16322512530331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>36.56413758467285</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>170.5568892738881</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>329.8261441701144</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>12.8571782015611</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>170.5568892738883</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>36.56413758467285</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>245.9564399106807</v>
       </c>
       <c r="L24" t="n">
-        <v>16.16322512530331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>36.56413758467285</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>16.16322512530331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>98.71414480061765</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>36.56413758467285</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>7.205692898655229</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.554490104077</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>7.205692898655229</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>299.9539715380391</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720755</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>7.205692898655229</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>299.9539715380391</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>7.205692898655229</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>469.554490104077</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298253</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>7.205692898654718</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>469.554490104077</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>7.205692898655229</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>469.554490104077</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.3313451967925</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>162.746186113483</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>144.1148380330675</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>141.9333276614244</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>140.9204130377865</v>
       </c>
       <c r="G13" t="n">
-        <v>159.8228065487494</v>
+        <v>162.0169667265969</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>104.8097464080277</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>106.6413558026585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.5443396587283</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1496135889819</v>
+        <v>217.149613588982</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>281.7380283178888</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>247.6370083386832</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>282.0223633514462</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2090204038923</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.08401836695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>141.9333276614244</v>
+        <v>141.9333276614245</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9204130377864</v>
+        <v>140.9204130377865</v>
       </c>
       <c r="G16" t="n">
-        <v>151.3213734079905</v>
+        <v>162.016966726597</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>77.58477720454948</v>
       </c>
       <c r="I16" t="n">
-        <v>106.6413558026585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>106.5443396587284</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.839008972222</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1496135889819</v>
+        <v>217.149613588982</v>
       </c>
       <c r="U16" t="n">
-        <v>281.7380283178888</v>
+        <v>281.7380283178889</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>282.0223633514462</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>221.2090204038923</v>
+        <v>221.2090204038925</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.3313451967925</v>
+        <v>175.3313451967926</v>
       </c>
       <c r="C19" t="n">
-        <v>162.746186113483</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.1148380330675</v>
+        <v>37.55807576600567</v>
       </c>
       <c r="E19" t="n">
         <v>141.9333276614244</v>
       </c>
       <c r="F19" t="n">
-        <v>140.9204130377864</v>
+        <v>140.9204130377865</v>
       </c>
       <c r="G19" t="n">
-        <v>162.0169667265969</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.6268708087558</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>106.6413558026585</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>106.5443396587283</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.839008972222</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.149613588982</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>247.6370083386833</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>282.0223633514462</v>
       </c>
       <c r="X19" t="n">
-        <v>43.97583416582584</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.08401836695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.3313451967924</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>162.746186113483</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.1148380330675</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>141.9333276614243</v>
+        <v>141.9333276614244</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9204130377864</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>162.0169667265968</v>
+        <v>162.016966726597</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6268708087557</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>106.6413558026584</v>
+        <v>16.59917861482711</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.5443396587282</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.839008972222</v>
       </c>
       <c r="T22" t="n">
-        <v>43.97583416582524</v>
+        <v>217.149613588982</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>281.7380283178888</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>247.6370083386833</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>282.0223633514462</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.0840183669499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175.3313451967924</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>162.746186113483</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.1148380330675</v>
+        <v>144.1148380330676</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.9333276614244</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9204130377864</v>
+        <v>140.9204130377865</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.6268708087558</v>
       </c>
       <c r="I25" t="n">
-        <v>106.6413558026584</v>
+        <v>106.6413558026585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>53.30129022035965</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1496135889819</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>281.7380283178888</v>
       </c>
       <c r="V25" t="n">
-        <v>247.6370083386831</v>
+        <v>247.6370083386833</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>282.0223633514462</v>
       </c>
       <c r="X25" t="n">
-        <v>221.2090204038923</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.1857150567226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159.6773632369709</v>
+        <v>159.6773632369708</v>
       </c>
       <c r="C28" t="n">
         <v>147.0922041536614</v>
@@ -24607,19 +24607,19 @@
         <v>128.4608560732459</v>
       </c>
       <c r="E28" t="n">
-        <v>126.2793457016028</v>
+        <v>126.2793457016027</v>
       </c>
       <c r="F28" t="n">
         <v>125.2664310779648</v>
       </c>
       <c r="G28" t="n">
-        <v>146.3629847667753</v>
+        <v>125.6000869864455</v>
       </c>
       <c r="H28" t="n">
-        <v>128.9728888489341</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>90.98737384283683</v>
+        <v>90.98737384283677</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.89035769890666</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>266.3683813916245</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.74223706345515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.6773632369709</v>
+        <v>159.6773632369708</v>
       </c>
       <c r="C31" t="n">
-        <v>147.0922041536614</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4608560732459</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>104.936936417221</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.89035769890666</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>201.4956316291602</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>266.084046358067</v>
       </c>
       <c r="V31" t="n">
-        <v>178.8128435028165</v>
+        <v>231.9830263788615</v>
       </c>
       <c r="W31" t="n">
-        <v>266.3683813916246</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>205.5550384440706</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.4300364071284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26314,46 +26314,46 @@
         <v>82104.17698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
         <v>78401.13179705529</v>
       </c>
       <c r="F2" t="n">
-        <v>78401.13179705529</v>
+        <v>78401.13179705531</v>
       </c>
       <c r="G2" t="n">
-        <v>78401.13179705528</v>
+        <v>78401.13179705531</v>
       </c>
       <c r="H2" t="n">
-        <v>78401.13179705539</v>
+        <v>78401.13179705532</v>
       </c>
       <c r="I2" t="n">
-        <v>78401.13179705538</v>
+        <v>78401.13179705535</v>
       </c>
       <c r="J2" t="n">
-        <v>79296.82008451395</v>
+        <v>79296.82008451392</v>
       </c>
       <c r="K2" t="n">
-        <v>79296.82008451394</v>
+        <v>79296.82008451389</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642828</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.1769864283</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>513176.7369392837</v>
+        <v>513176.7369392838</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>4.760636329592671e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>84999.39228722293</v>
+        <v>84999.39228722308</v>
       </c>
       <c r="K3" t="n">
         <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
-        <v>140014.7478798312</v>
+        <v>140014.7478798311</v>
       </c>
       <c r="M3" t="n">
         <v>130730.9694847048</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16123.69355597308</v>
+        <v>16123.69355597322</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>19687.06685024067</v>
+        <v>19687.06685024065</v>
       </c>
       <c r="F4" t="n">
-        <v>19687.06685024067</v>
+        <v>19687.06685024059</v>
       </c>
       <c r="G4" t="n">
-        <v>19687.06685024066</v>
+        <v>19687.06685024061</v>
       </c>
       <c r="H4" t="n">
-        <v>19687.06685024073</v>
+        <v>19687.06685024062</v>
       </c>
       <c r="I4" t="n">
-        <v>19687.06685024074</v>
+        <v>19687.06685024062</v>
       </c>
       <c r="J4" t="n">
-        <v>24838.00703946685</v>
+        <v>24838.00703946689</v>
       </c>
       <c r="K4" t="n">
-        <v>24838.00703946687</v>
+        <v>24838.00703946688</v>
       </c>
       <c r="L4" t="n">
         <v>40982.60521502628</v>
@@ -26451,13 +26451,13 @@
         <v>40982.60521502624</v>
       </c>
       <c r="N4" t="n">
-        <v>40982.60521502627</v>
+        <v>40982.60521502625</v>
       </c>
       <c r="O4" t="n">
         <v>40982.60521502628</v>
       </c>
       <c r="P4" t="n">
-        <v>40982.60521502624</v>
+        <v>40982.60521502627</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91082.15287887875</v>
+        <v>91082.15287887877</v>
       </c>
       <c r="F5" t="n">
         <v>91082.15287887875</v>
@@ -26485,31 +26485,31 @@
         <v>91082.15287887875</v>
       </c>
       <c r="H5" t="n">
-        <v>91082.15287887878</v>
+        <v>91082.15287887875</v>
       </c>
       <c r="I5" t="n">
-        <v>91082.15287887877</v>
+        <v>91082.15287887875</v>
       </c>
       <c r="J5" t="n">
         <v>92398.167488259</v>
       </c>
       <c r="K5" t="n">
-        <v>92398.167488259</v>
+        <v>92398.16748825902</v>
       </c>
       <c r="L5" t="n">
         <v>96522.95369836671</v>
       </c>
       <c r="M5" t="n">
-        <v>96522.95369836673</v>
+        <v>96522.95369836672</v>
       </c>
       <c r="N5" t="n">
-        <v>96522.95369836671</v>
+        <v>96522.95369836672</v>
       </c>
       <c r="O5" t="n">
         <v>96522.95369836671</v>
       </c>
       <c r="P5" t="n">
-        <v>96522.95369836672</v>
+        <v>96522.95369836671</v>
       </c>
     </row>
     <row r="6">
@@ -26525,40 +26525,40 @@
         <v>-267540.2355081241</v>
       </c>
       <c r="D6" t="n">
-        <v>-574713.4814818916</v>
+        <v>-574713.4814818917</v>
       </c>
       <c r="E6" t="n">
-        <v>-545544.8248713479</v>
+        <v>-545637.4010010822</v>
       </c>
       <c r="F6" t="n">
-        <v>-32368.08793206414</v>
+        <v>-32460.66406179832</v>
       </c>
       <c r="G6" t="n">
-        <v>-32368.08793206413</v>
+        <v>-32460.6640617984</v>
       </c>
       <c r="H6" t="n">
-        <v>-32368.08793206417</v>
+        <v>-32460.66406179838</v>
       </c>
       <c r="I6" t="n">
-        <v>-32368.08793206413</v>
+        <v>-32460.66406179835</v>
       </c>
       <c r="J6" t="n">
-        <v>-122938.7467304348</v>
+        <v>-123008.9306529829</v>
       </c>
       <c r="K6" t="n">
-        <v>-41263.12826768723</v>
+        <v>-41333.31219023516</v>
       </c>
       <c r="L6" t="n">
-        <v>-195416.1298067959</v>
+        <v>-195416.1298067958</v>
       </c>
       <c r="M6" t="n">
-        <v>-186132.3514116695</v>
+        <v>-186132.3514116694</v>
       </c>
       <c r="N6" t="n">
-        <v>-55401.38192696466</v>
+        <v>-55401.38192696469</v>
       </c>
       <c r="O6" t="n">
-        <v>-71525.07548293774</v>
+        <v>-71525.07548293791</v>
       </c>
       <c r="P6" t="n">
         <v>-55401.38192696468</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="F2" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="G2" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H2" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I2" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J2" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="K2" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="L2" t="n">
         <v>69.21891187065492</v>
       </c>
       <c r="M2" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="N2" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="O2" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="P2" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
     </row>
     <row r="3">
@@ -26774,7 +26774,7 @@
         <v>817.0548768158274</v>
       </c>
       <c r="O3" t="n">
-        <v>817.0548768158275</v>
+        <v>817.0548768158274</v>
       </c>
       <c r="P3" t="n">
         <v>817.0548768158274</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>5.950795411990839e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.15461694496636</v>
+        <v>20.15461694496652</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.0642949256885</v>
+        <v>49.0642949256884</v>
       </c>
       <c r="M2" t="n">
-        <v>7.371880883511039e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.15461694496635</v>
+        <v>20.15461694496652</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>398.1307590522001</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5941858264902</v>
+        <v>524.5941858264904</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>524.5941858264904</v>
+        <v>524.5941858264906</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.664535259100376e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.950795411990839e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.15461694496636</v>
+        <v>20.15461694496652</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>524.5941858264902</v>
+        <v>524.5941858264904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.0536253572477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>123.2002815020654</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27436,16 +27436,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.2392003120871</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>51.95433860135311</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -27512,16 +27512,16 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>3.033978434672576</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>84.79256385362737</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
         <v>78.52652791832747</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>266.1476507528888</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.088427835055</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.1596932459128</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>150.2225931915106</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27798,7 +27798,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>77.0064493759501</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>65.51071208687125</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>249.542405674054</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>254.2231871092386</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,19 +28059,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>72.6705324754106</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="C11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="D11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="E11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="F11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="U11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="V11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="W11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="X11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="C13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="D13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="E13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="F13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="M13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="O13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="R13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="T13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="U13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="V13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="W13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="X13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5006349851448</v>
+        <v>4.500634985144773</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="C14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="D14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="E14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="F14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="G14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="H14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="I14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="T14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="U14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="V14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="W14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="X14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="C16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="D16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="E16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="F16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="G16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="H16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="I16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="J16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="K16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="L16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="M16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="N16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="O16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="P16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="R16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="S16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="T16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="U16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="V16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="W16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="X16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144712</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="C17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="D17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="E17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="F17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="G17" t="n">
-        <v>4.500634985144416</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="T17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="U17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="V17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="W17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="X17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="C19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="D19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="E19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="F19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="G19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="K19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="L19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="M19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="N19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="O19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="P19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="R19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="S19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="T19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="U19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="V19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="W19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="X19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144739</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="C20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="D20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="E20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="F20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="G20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="T20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="U20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="V20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.50063498514487</v>
       </c>
       <c r="W20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="X20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="C22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="D22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="E22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="F22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="G22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="K22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="L22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="M22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="N22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="O22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="P22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="R22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="S22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="T22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="U22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="V22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="W22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="X22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="C23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="D23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="E23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="F23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="G23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="T23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="U23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="V23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="W23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="X23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144984</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="C25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="D25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="E25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="F25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="G25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="H25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="I25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="J25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="K25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="L25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="M25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="N25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="O25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="P25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="R25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="S25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="T25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="U25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="V25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="W25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="X25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144739</v>
       </c>
     </row>
     <row r="26">
@@ -29278,19 +29278,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.045673942272629</v>
       </c>
       <c r="H26" t="n">
-        <v>7.045673942272344</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,10 +29323,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>20.15461694496642</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>20.15461694496642</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="C28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="D28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="E28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="F28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="G28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="H28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="I28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="J28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="K28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="L28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="M28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="N28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="O28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="P28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="R28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="S28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="T28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="U28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="V28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="W28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="X28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
       <c r="Y28" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496648</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.045673942272572</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.045673942271662</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,16 +29560,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="U29" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="V29" t="n">
-        <v>20.15461694496642</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>20.15461694496642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="C31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="D31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="E31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="F31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="G31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="H31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="I31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="J31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="K31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="L31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="M31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="N31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="O31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="P31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="R31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="S31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="T31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="U31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="V31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="W31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="X31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.15461694496642</v>
+        <v>20.15461694496654</v>
       </c>
     </row>
     <row r="32">
@@ -29746,67 +29746,67 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>67.50952477717186</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>67.50952477717112</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>67.50952477717107</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="C37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="D37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="E37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="F37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="G37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="H37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="I37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="J37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="K37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="L37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="M37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="N37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="O37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="P37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="R37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="S37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="T37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="U37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="V37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="W37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="X37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065491</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.50952477717186</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>67.50952477717141</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="C40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="D40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="E40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="F40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="G40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="H40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="I40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="J40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="K40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="L40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="M40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="N40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="O40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="P40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="R40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="S40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="T40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="U40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="V40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="W40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="X40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>67.50952477717203</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>67.50952477717189</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="C43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="D43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="E43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="F43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="G43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="H43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="I43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="J43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="K43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="L43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="M43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="N43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="O43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="P43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="R43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="S43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="T43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="U43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="V43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="W43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="X43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.21891187065491</v>
+        <v>69.21891187065492</v>
       </c>
     </row>
     <row r="44">
@@ -30700,10 +30700,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>67.50952477717203</v>
       </c>
       <c r="E44" t="n">
-        <v>67.50952477717101</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="C46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="D46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="E46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="F46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="G46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="H46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="I46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="J46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="K46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="L46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="M46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="N46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="O46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="P46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="R46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="S46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="T46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="U46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="V46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="W46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="X46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065488</v>
       </c>
     </row>
   </sheetData>
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31069,10 +31069,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
         <v>2.10821088633251</v>
@@ -31081,7 +31081,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31127,10 +31127,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31139,7 +31139,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
@@ -31148,19 +31148,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31209,37 +31209,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -34123,31 +34123,31 @@
         <v>3.284642720867645</v>
       </c>
       <c r="H41" t="n">
-        <v>33.63884726508579</v>
+        <v>33.63884726508578</v>
       </c>
       <c r="I41" t="n">
         <v>126.63118849625</v>
       </c>
       <c r="J41" t="n">
-        <v>278.7799451302406</v>
+        <v>278.7799451302405</v>
       </c>
       <c r="K41" t="n">
         <v>417.8188715045681</v>
       </c>
       <c r="L41" t="n">
-        <v>518.3412561733214</v>
+        <v>518.3412561733213</v>
       </c>
       <c r="M41" t="n">
         <v>576.7545211605513</v>
       </c>
       <c r="N41" t="n">
-        <v>586.0870122912166</v>
+        <v>586.0870122912165</v>
       </c>
       <c r="O41" t="n">
         <v>553.4253462355889</v>
       </c>
       <c r="P41" t="n">
-        <v>472.3357290641689</v>
+        <v>472.3357290641688</v>
       </c>
       <c r="Q41" t="n">
         <v>354.7044616230962</v>
@@ -34159,7 +34159,7 @@
         <v>74.84879600177155</v>
       </c>
       <c r="T41" t="n">
-        <v>14.37852351059813</v>
+        <v>14.37852351059812</v>
       </c>
       <c r="U41" t="n">
         <v>0.2627714176694116</v>
@@ -34202,10 +34202,10 @@
         <v>1.757438791641591</v>
       </c>
       <c r="H42" t="n">
-        <v>16.97315885611748</v>
+        <v>16.97315885611747</v>
       </c>
       <c r="I42" t="n">
-        <v>60.50830927362497</v>
+        <v>60.50830927362496</v>
       </c>
       <c r="J42" t="n">
         <v>166.0394254857523</v>
@@ -34214,10 +34214,10 @@
         <v>283.7878245257389</v>
       </c>
       <c r="L42" t="n">
-        <v>381.5877516676184</v>
+        <v>381.5877516676183</v>
       </c>
       <c r="M42" t="n">
-        <v>445.2949078646259</v>
+        <v>445.2949078646258</v>
       </c>
       <c r="N42" t="n">
         <v>457.0805390594505</v>
@@ -34238,10 +34238,10 @@
         <v>32.64365474825497</v>
       </c>
       <c r="T42" t="n">
-        <v>7.083711620695709</v>
+        <v>7.083711620695708</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1156209731343153</v>
+        <v>0.1156209731343152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>13.09966671353901</v>
       </c>
       <c r="I43" t="n">
-        <v>44.30848413945505</v>
+        <v>44.30848413945504</v>
       </c>
       <c r="J43" t="n">
         <v>104.1677996228965</v>
@@ -34293,13 +34293,13 @@
         <v>171.1796938640372</v>
       </c>
       <c r="L43" t="n">
-        <v>219.0510730400991</v>
+        <v>219.051073040099</v>
       </c>
       <c r="M43" t="n">
-        <v>230.9586432940215</v>
+        <v>230.9586432940214</v>
       </c>
       <c r="N43" t="n">
-        <v>225.4669629744399</v>
+        <v>225.4669629744398</v>
       </c>
       <c r="O43" t="n">
         <v>208.2552331923359</v>
@@ -34317,7 +34317,7 @@
         <v>25.67695407960558</v>
       </c>
       <c r="T43" t="n">
-        <v>6.295340854154734</v>
+        <v>6.295340854154733</v>
       </c>
       <c r="U43" t="n">
         <v>0.08036605345729458</v>
@@ -34778,7 +34778,7 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>5.840541654727224</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
         <v>243.0338665604671</v>
@@ -34790,7 +34790,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>134.2670001490827</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315785</v>
+        <v>13.92929209596795</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
@@ -35024,10 +35024,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
-        <v>151.298066666745</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>198.8728484821096</v>
@@ -35495,19 +35495,19 @@
         <v>243.0333718877441</v>
       </c>
       <c r="M12" t="n">
-        <v>768.8659376926074</v>
+        <v>303.1608739426075</v>
       </c>
       <c r="N12" t="n">
         <v>325.7388269761171</v>
       </c>
       <c r="O12" t="n">
-        <v>275.5431508633686</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P12" t="n">
-        <v>201.6193211404574</v>
+        <v>478.551318705226</v>
       </c>
       <c r="Q12" t="n">
-        <v>289.4429991455508</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.30925449136855</v>
+        <v>15.30925449136852</v>
       </c>
       <c r="K13" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232991</v>
       </c>
       <c r="L13" t="n">
         <v>251.14173328556</v>
@@ -35586,7 +35586,7 @@
         <v>179.9775234493459</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.71387813264035</v>
+        <v>41.71387813264032</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K15" t="n">
-        <v>410.4116225639585</v>
+        <v>391.9028254620605</v>
       </c>
       <c r="L15" t="n">
-        <v>259.1965970130474</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M15" t="n">
         <v>303.1608739426075</v>
@@ -35744,7 +35744,7 @@
         <v>520.0820897803947</v>
       </c>
       <c r="Q15" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.30925449136855</v>
+        <v>15.30925449136846</v>
       </c>
       <c r="K16" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232991</v>
       </c>
       <c r="L16" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855599</v>
       </c>
       <c r="M16" t="n">
-        <v>275.0431552410068</v>
+        <v>275.0431552410067</v>
       </c>
       <c r="N16" t="n">
-        <v>274.0997703388132</v>
+        <v>274.0997703388131</v>
       </c>
       <c r="O16" t="n">
         <v>237.3409960915203</v>
       </c>
       <c r="P16" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493458</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.71387813264035</v>
+        <v>41.71387813264026</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K18" t="n">
-        <v>145.9463855513799</v>
+        <v>316.503274825268</v>
       </c>
       <c r="L18" t="n">
-        <v>243.0333718877441</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M18" t="n">
         <v>303.1608739426075</v>
       </c>
       <c r="N18" t="n">
-        <v>805.0812013196708</v>
+        <v>325.7388269761171</v>
       </c>
       <c r="O18" t="n">
-        <v>605.369295033483</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P18" t="n">
         <v>201.6193211404574</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.30925449136855</v>
+        <v>15.30925449136849</v>
       </c>
       <c r="K19" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232991</v>
       </c>
       <c r="L19" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855599</v>
       </c>
       <c r="M19" t="n">
         <v>275.0431552410068</v>
@@ -36057,10 +36057,10 @@
         <v>237.3409960915203</v>
       </c>
       <c r="P19" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493458</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.71387813264035</v>
+        <v>41.71387813264029</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>700.2360557537845</v>
       </c>
       <c r="M20" t="n">
-        <v>795.9218214261111</v>
+        <v>795.9218214261119</v>
       </c>
       <c r="N20" t="n">
         <v>794.0208731066098</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.20179881908558</v>
+        <v>52.05897702064668</v>
       </c>
       <c r="K21" t="n">
         <v>145.9463855513799</v>
       </c>
       <c r="L21" t="n">
-        <v>613.8737171912032</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M21" t="n">
         <v>303.1608739426075</v>
@@ -36215,10 +36215,10 @@
         <v>669.4054701400981</v>
       </c>
       <c r="P21" t="n">
-        <v>372.1762104143457</v>
+        <v>520.0820897803947</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.35374605405246</v>
+        <v>294.4310337899016</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.30925449136861</v>
+        <v>15.30925449136849</v>
       </c>
       <c r="K22" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232991</v>
       </c>
       <c r="L22" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855599</v>
       </c>
       <c r="M22" t="n">
-        <v>275.0431552410069</v>
+        <v>275.0431552410068</v>
       </c>
       <c r="N22" t="n">
-        <v>274.0997703388133</v>
+        <v>274.0997703388132</v>
       </c>
       <c r="O22" t="n">
-        <v>237.3409960915204</v>
+        <v>237.3409960915203</v>
       </c>
       <c r="P22" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493458</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.7138781326404</v>
+        <v>41.71387813264029</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K24" t="n">
-        <v>410.4116225639585</v>
+        <v>391.9028254620605</v>
       </c>
       <c r="L24" t="n">
-        <v>259.1965970130474</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M24" t="n">
         <v>303.1608739426075</v>
@@ -36455,7 +36455,7 @@
         <v>520.0820897803947</v>
       </c>
       <c r="Q24" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.30925449136861</v>
+        <v>15.30925449136849</v>
       </c>
       <c r="K25" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232991</v>
       </c>
       <c r="L25" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855599</v>
       </c>
       <c r="M25" t="n">
-        <v>275.0431552410069</v>
+        <v>275.0431552410068</v>
       </c>
       <c r="N25" t="n">
-        <v>274.0997703388133</v>
+        <v>274.0997703388132</v>
       </c>
       <c r="O25" t="n">
-        <v>237.3409960915204</v>
+        <v>237.3409960915203</v>
       </c>
       <c r="P25" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493458</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.7138781326404</v>
+        <v>41.71387813264029</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L27" t="n">
-        <v>259.1965970130474</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M27" t="n">
-        <v>303.1608739426075</v>
+        <v>768.8659376926074</v>
       </c>
       <c r="N27" t="n">
         <v>325.7388269761171</v>
@@ -36689,10 +36689,10 @@
         <v>275.5431508633686</v>
       </c>
       <c r="P27" t="n">
-        <v>520.0820897803947</v>
+        <v>300.3334659410751</v>
       </c>
       <c r="Q27" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.96323645119017</v>
+        <v>30.96323645119023</v>
       </c>
       <c r="K28" t="n">
         <v>169.0648189831208</v>
@@ -36759,19 +36759,19 @@
         <v>266.7957152453816</v>
       </c>
       <c r="M28" t="n">
-        <v>290.6971372008284</v>
+        <v>290.6971372008285</v>
       </c>
       <c r="N28" t="n">
-        <v>289.7537522986348</v>
+        <v>289.7537522986349</v>
       </c>
       <c r="O28" t="n">
-        <v>252.9949780513419</v>
+        <v>252.994978051342</v>
       </c>
       <c r="P28" t="n">
         <v>195.6315054091675</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.36786009246197</v>
+        <v>57.36786009246203</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K30" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L30" t="n">
-        <v>250.2390647863994</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M30" t="n">
-        <v>303.1608739426075</v>
+        <v>768.8659376926074</v>
       </c>
       <c r="N30" t="n">
-        <v>325.7388269761171</v>
+        <v>795.2933170801941</v>
       </c>
       <c r="O30" t="n">
         <v>275.5431508633686</v>
       </c>
       <c r="P30" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404574</v>
       </c>
       <c r="Q30" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R30" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.96323645119017</v>
+        <v>30.9632364511903</v>
       </c>
       <c r="K31" t="n">
-        <v>169.0648189831208</v>
+        <v>169.0648189831209</v>
       </c>
       <c r="L31" t="n">
-        <v>266.7957152453816</v>
+        <v>266.7957152453817</v>
       </c>
       <c r="M31" t="n">
-        <v>290.6971372008285</v>
+        <v>290.6971372008286</v>
       </c>
       <c r="N31" t="n">
-        <v>289.7537522986348</v>
+        <v>289.753752298635</v>
       </c>
       <c r="O31" t="n">
-        <v>252.9949780513419</v>
+        <v>252.9949780513421</v>
       </c>
       <c r="P31" t="n">
-        <v>195.6315054091675</v>
+        <v>195.6315054091676</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.36786009246197</v>
+        <v>57.3678600924621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K33" t="n">
         <v>410.4116225639585</v>
       </c>
       <c r="L33" t="n">
-        <v>250.2390647863994</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M33" t="n">
         <v>303.1608739426075</v>
@@ -37163,13 +37163,13 @@
         <v>275.5431508633686</v>
       </c>
       <c r="P33" t="n">
-        <v>520.0820897803947</v>
+        <v>501.5732926784965</v>
       </c>
       <c r="Q33" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R33" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>266.830655775628</v>
+        <v>266.8306557756298</v>
       </c>
       <c r="K35" t="n">
         <v>521.8744330307522</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K36" t="n">
         <v>410.4116225639585</v>
       </c>
       <c r="L36" t="n">
-        <v>250.2390647863994</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M36" t="n">
         <v>303.1608739426075</v>
@@ -37400,13 +37400,13 @@
         <v>275.5431508633686</v>
       </c>
       <c r="P36" t="n">
-        <v>520.0820897803947</v>
+        <v>501.5732926784965</v>
       </c>
       <c r="Q36" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R36" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.02753137687868</v>
+        <v>80.02753137687866</v>
       </c>
       <c r="K37" t="n">
-        <v>218.1291139088093</v>
+        <v>218.1291139088092</v>
       </c>
       <c r="L37" t="n">
         <v>315.8600101710701</v>
       </c>
       <c r="M37" t="n">
-        <v>339.761432126517</v>
+        <v>339.7614321265169</v>
       </c>
       <c r="N37" t="n">
-        <v>338.8180472243234</v>
+        <v>338.8180472243233</v>
       </c>
       <c r="O37" t="n">
         <v>302.0592729770304</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K39" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L39" t="n">
-        <v>250.2390647863994</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M39" t="n">
-        <v>303.1608739426075</v>
+        <v>768.8659376926074</v>
       </c>
       <c r="N39" t="n">
-        <v>325.7388269761171</v>
+        <v>795.2933170801941</v>
       </c>
       <c r="O39" t="n">
         <v>275.5431508633686</v>
       </c>
       <c r="P39" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404574</v>
       </c>
       <c r="Q39" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R39" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.02753137687866</v>
+        <v>80.02753137687867</v>
       </c>
       <c r="K40" t="n">
-        <v>218.1291139088092</v>
+        <v>218.1291139088093</v>
       </c>
       <c r="L40" t="n">
         <v>315.8600101710701</v>
       </c>
       <c r="M40" t="n">
-        <v>339.7614321265169</v>
+        <v>339.761432126517</v>
       </c>
       <c r="N40" t="n">
         <v>338.8180472243233</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>266.8306557756281</v>
+        <v>266.830655775628</v>
       </c>
       <c r="K41" t="n">
         <v>521.8744330307522</v>
       </c>
       <c r="L41" t="n">
-        <v>700.2360557537846</v>
+        <v>700.2360557537845</v>
       </c>
       <c r="M41" t="n">
         <v>795.9218214261111</v>
       </c>
       <c r="N41" t="n">
-        <v>794.0208731066099</v>
+        <v>794.0208731066098</v>
       </c>
       <c r="O41" t="n">
         <v>704.1273160766475</v>
       </c>
       <c r="P41" t="n">
-        <v>562.901441480382</v>
+        <v>562.9014414803819</v>
       </c>
       <c r="Q41" t="n">
         <v>344.7137624085514</v>
       </c>
       <c r="R41" t="n">
-        <v>56.45982037355284</v>
+        <v>56.45982037355273</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K42" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L42" t="n">
-        <v>250.2390647863989</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M42" t="n">
-        <v>303.1608739426076</v>
+        <v>768.8659376926074</v>
       </c>
       <c r="N42" t="n">
-        <v>325.7388269761173</v>
+        <v>795.2933170801941</v>
       </c>
       <c r="O42" t="n">
-        <v>275.5431508633687</v>
+        <v>275.5431508633686</v>
       </c>
       <c r="P42" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404574</v>
       </c>
       <c r="Q42" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R42" t="n">
-        <v>8.957532226647984</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>339.761432126517</v>
       </c>
       <c r="N43" t="n">
-        <v>338.8180472243234</v>
+        <v>338.8180472243233</v>
       </c>
       <c r="O43" t="n">
         <v>302.0592729770304</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>266.830655775628</v>
+        <v>266.8306557756289</v>
       </c>
       <c r="K44" t="n">
         <v>521.8744330307522</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K45" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L45" t="n">
-        <v>250.2390647863994</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M45" t="n">
-        <v>303.1608739426075</v>
+        <v>768.8659376926074</v>
       </c>
       <c r="N45" t="n">
-        <v>325.7388269761171</v>
+        <v>795.2933170801941</v>
       </c>
       <c r="O45" t="n">
         <v>275.5431508633686</v>
       </c>
       <c r="P45" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404574</v>
       </c>
       <c r="Q45" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R45" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.02753137687867</v>
+        <v>80.02753137687863</v>
       </c>
       <c r="K46" t="n">
-        <v>218.1291139088093</v>
+        <v>218.1291139088092</v>
       </c>
       <c r="L46" t="n">
-        <v>315.8600101710701</v>
+        <v>315.86001017107</v>
       </c>
       <c r="M46" t="n">
-        <v>339.761432126517</v>
+        <v>339.7614321265169</v>
       </c>
       <c r="N46" t="n">
         <v>338.8180472243233</v>
@@ -38193,7 +38193,7 @@
         <v>244.695800334856</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.4321550181505</v>
+        <v>106.4321550181504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
